--- a/prot/356379915/Переход трубопровода через р. Енисей/Cрезы КД/1067.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/Cрезы КД/1067.xlsx
@@ -2526,7 +2526,7 @@
         <v>0.1</v>
       </c>
       <c r="O47" s="65" t="n">
-        <v>0.06773502691896258</v>
+        <v>0.06973502691896258</v>
       </c>
       <c r="P47" s="66" t="n"/>
       <c r="Q47" s="66" t="n"/>
@@ -2545,7 +2545,7 @@
         <v>0.15</v>
       </c>
       <c r="O48" s="65" t="n">
-        <v>0.1116025403784438</v>
+        <v>0.1076025403784439</v>
       </c>
       <c r="P48" s="68">
         <f>SLOPE(O47:O49,N47:N49)</f>
@@ -2573,7 +2573,7 @@
         <v>0.2</v>
       </c>
       <c r="O49" s="65" t="n">
-        <v>0.1254700538379251</v>
+        <v>0.1274700538379251</v>
       </c>
       <c r="P49" s="71" t="n"/>
       <c r="Q49" s="71" t="n"/>
@@ -2859,26 +2859,26 @@
     </row>
     <row r="66">
       <c r="F66" s="60" t="n">
-        <v>0.001822028987039213</v>
+        <v>0.001909733916601876</v>
       </c>
       <c r="G66" s="100" t="n">
         <v>0.03620605733560987</v>
       </c>
       <c r="H66" s="100" t="n"/>
       <c r="J66" s="60" t="n">
-        <v>0.001822028987039213</v>
+        <v>0.001909733916601876</v>
       </c>
       <c r="K66" s="100" t="n">
         <v>0.03620605733560987</v>
       </c>
       <c r="L66" s="57" t="n">
-        <v>0.00315603435523558</v>
+        <v>0.002894731929670265</v>
       </c>
       <c r="M66" s="60" t="n">
         <v>0.03620605733560987</v>
       </c>
       <c r="N66" s="100" t="n">
-        <v>0.003319852762285016</v>
+        <v>0.003474567405306475</v>
       </c>
       <c r="O66" s="57" t="n">
         <v>0.03620605733560987</v>
@@ -2886,26 +2886,26 @@
     </row>
     <row r="67">
       <c r="F67" s="60" t="n">
-        <v>0.003605788557810209</v>
+        <v>0.00385886722366727</v>
       </c>
       <c r="G67" s="100" t="n">
         <v>0.07241211467121973</v>
       </c>
       <c r="H67" s="100" t="n"/>
       <c r="J67" s="60" t="n">
-        <v>0.003605788557810209</v>
+        <v>0.00385886722366727</v>
       </c>
       <c r="K67" s="100" t="n">
         <v>0.07241211467121973</v>
       </c>
       <c r="L67" s="57" t="n">
-        <v>0.006289636039038309</v>
+        <v>0.005996982000502271</v>
       </c>
       <c r="M67" s="60" t="n">
         <v>0.07241211467121973</v>
       </c>
       <c r="N67" s="100" t="n">
-        <v>0.006712639360021115</v>
+        <v>0.007133337088602293</v>
       </c>
       <c r="O67" s="57" t="n">
         <v>0.07241211467121973</v>
@@ -2913,26 +2913,26 @@
     </row>
     <row r="68">
       <c r="F68" s="60" t="n">
-        <v>0.00530436187986878</v>
+        <v>0.005582590556446191</v>
       </c>
       <c r="G68" s="100" t="n">
         <v>0.1086181720068296</v>
       </c>
       <c r="H68" s="100" t="n"/>
       <c r="J68" s="60" t="n">
-        <v>0.00530436187986878</v>
+        <v>0.005582590556446191</v>
       </c>
       <c r="K68" s="100" t="n">
         <v>0.1086181720068296</v>
       </c>
       <c r="L68" s="57" t="n">
-        <v>0.008874243561153241</v>
+        <v>0.009189254025528384</v>
       </c>
       <c r="M68" s="60" t="n">
         <v>0.1086181720068296</v>
       </c>
       <c r="N68" s="100" t="n">
-        <v>0.01026526693358225</v>
+        <v>0.01006430002691015</v>
       </c>
       <c r="O68" s="57" t="n">
         <v>0.1086181720068296</v>
@@ -2940,26 +2940,26 @@
     </row>
     <row r="69">
       <c r="F69" s="60" t="n">
-        <v>0.007534659302961716</v>
+        <v>0.007426785102373175</v>
       </c>
       <c r="G69" s="100" t="n">
         <v>0.1448242293424395</v>
       </c>
       <c r="H69" s="100" t="n"/>
       <c r="J69" s="60" t="n">
-        <v>0.007534659302961716</v>
+        <v>0.007426785102373175</v>
       </c>
       <c r="K69" s="100" t="n">
         <v>0.1448242293424395</v>
       </c>
       <c r="L69" s="57" t="n">
-        <v>0.01181777382619382</v>
+        <v>0.01190511116309867</v>
       </c>
       <c r="M69" s="60" t="n">
         <v>0.1448242293424395</v>
       </c>
       <c r="N69" s="100" t="n">
-        <v>0.01378653977414572</v>
+        <v>0.01351740024944343</v>
       </c>
       <c r="O69" s="57" t="n">
         <v>0.1448242293424395</v>
@@ -2967,26 +2967,26 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="F70" s="60" t="n">
-        <v>0.009559994563925834</v>
+        <v>0.009730512923610235</v>
       </c>
       <c r="G70" s="100" t="n">
         <v>0.1810302866780493</v>
       </c>
       <c r="H70" s="100" t="n"/>
       <c r="J70" s="60" t="n">
-        <v>0.009559994563925834</v>
+        <v>0.009730512923610235</v>
       </c>
       <c r="K70" s="100" t="n">
         <v>0.1810302866780493</v>
       </c>
       <c r="L70" s="57" t="n">
-        <v>0.0151496318223896</v>
+        <v>0.01437866894993222</v>
       </c>
       <c r="M70" s="60" t="n">
         <v>0.1810302866780493</v>
       </c>
       <c r="N70" s="100" t="n">
-        <v>0.01727407219550519</v>
+        <v>0.01751479742874221</v>
       </c>
       <c r="O70" s="57" t="n">
         <v>0.1810302866780493</v>
@@ -2994,26 +2994,26 @@
     </row>
     <row r="71">
       <c r="F71" s="60" t="n">
-        <v>0.01119380425845357</v>
+        <v>0.01108448813050075</v>
       </c>
       <c r="G71" s="100" t="n">
         <v>0.2172363440136592</v>
       </c>
       <c r="H71" s="100" t="n"/>
       <c r="J71" s="60" t="n">
-        <v>0.01119380425845357</v>
+        <v>0.01108448813050075</v>
       </c>
       <c r="K71" s="100" t="n">
         <v>0.2172363440136592</v>
       </c>
       <c r="L71" s="57" t="n">
-        <v>0.01844693137881045</v>
+        <v>0.01738768199677747</v>
       </c>
       <c r="M71" s="60" t="n">
         <v>0.2172363440136592</v>
       </c>
       <c r="N71" s="100" t="n">
-        <v>0.02125850897241455</v>
+        <v>0.02082039733093064</v>
       </c>
       <c r="O71" s="57" t="n">
         <v>0.2172363440136592</v>
@@ -3021,26 +3021,26 @@
     </row>
     <row r="72">
       <c r="F72" s="60" t="n">
-        <v>0.01327967143264963</v>
+        <v>0.01284439071125338</v>
       </c>
       <c r="G72" s="100" t="n">
         <v>0.253442401349269</v>
       </c>
       <c r="H72" s="100" t="n"/>
       <c r="J72" s="60" t="n">
-        <v>0.01327967143264963</v>
+        <v>0.01284439071125338</v>
       </c>
       <c r="K72" s="100" t="n">
         <v>0.253442401349269</v>
       </c>
       <c r="L72" s="57" t="n">
-        <v>0.02181425724740681</v>
+        <v>0.02011581485537422</v>
       </c>
       <c r="M72" s="60" t="n">
         <v>0.253442401349269</v>
       </c>
       <c r="N72" s="100" t="n">
-        <v>0.02404294558753298</v>
+        <v>0.02381541557267464</v>
       </c>
       <c r="O72" s="57" t="n">
         <v>0.253442401349269</v>
@@ -3051,26 +3051,26 @@
       <c r="B73" s="59" t="n"/>
       <c r="D73" s="101" t="n"/>
       <c r="F73" s="60" t="n">
-        <v>0.0152135648672421</v>
+        <v>0.01530211711156179</v>
       </c>
       <c r="G73" s="100" t="n">
         <v>0.2896484586848789</v>
       </c>
       <c r="H73" s="100" t="n"/>
       <c r="J73" s="60" t="n">
-        <v>0.0152135648672421</v>
+        <v>0.01530211711156179</v>
       </c>
       <c r="K73" s="100" t="n">
         <v>0.2896484586848789</v>
       </c>
       <c r="L73" s="57" t="n">
-        <v>0.02440432136527568</v>
+        <v>0.02406976614218554</v>
       </c>
       <c r="M73" s="60" t="n">
         <v>0.2896484586848789</v>
       </c>
       <c r="N73" s="100" t="n">
-        <v>0.02809656726442632</v>
+        <v>0.02696832148126665</v>
       </c>
       <c r="O73" s="57" t="n">
         <v>0.2896484586848789</v>
@@ -3078,26 +3078,26 @@
     </row>
     <row r="74">
       <c r="F74" s="60" t="n">
-        <v>0.01642475509461553</v>
+        <v>0.01687563026819855</v>
       </c>
       <c r="G74" s="100" t="n">
         <v>0.3258545160204888</v>
       </c>
       <c r="H74" s="100" t="n"/>
       <c r="J74" s="60" t="n">
-        <v>0.01642475509461553</v>
+        <v>0.01687563026819855</v>
       </c>
       <c r="K74" s="100" t="n">
         <v>0.3258545160204888</v>
       </c>
       <c r="L74" s="57" t="n">
-        <v>0.02757763494039873</v>
+        <v>0.02585266848174417</v>
       </c>
       <c r="M74" s="60" t="n">
         <v>0.3258545160204888</v>
       </c>
       <c r="N74" s="100" t="n">
-        <v>0.03110559919525625</v>
+        <v>0.03010876257405486</v>
       </c>
       <c r="O74" s="57" t="n">
         <v>0.3258545160204888</v>
@@ -3105,26 +3105,26 @@
     </row>
     <row r="75">
       <c r="F75" s="60" t="n">
-        <v>0.01774376204282154</v>
+        <v>0.01985312555039106</v>
       </c>
       <c r="G75" s="100" t="n">
         <v>0.3620605733560986</v>
       </c>
       <c r="H75" s="100" t="n"/>
       <c r="J75" s="60" t="n">
-        <v>0.01774376204282154</v>
+        <v>0.01985312555039106</v>
       </c>
       <c r="K75" s="100" t="n">
         <v>0.3620605733560986</v>
       </c>
       <c r="L75" s="57" t="n">
-        <v>0.03105409272407384</v>
+        <v>0.02998783279323194</v>
       </c>
       <c r="M75" s="60" t="n">
         <v>0.3620605733560986</v>
       </c>
       <c r="N75" s="100" t="n">
-        <v>0.03465720433187181</v>
+        <v>0.0346348756903644</v>
       </c>
       <c r="O75" s="57" t="n">
         <v>0.3620605733560986</v>
@@ -3134,26 +3134,26 @@
       <c r="A76" s="101" t="n"/>
       <c r="C76" s="102" t="n"/>
       <c r="F76" s="60" t="n">
-        <v>0.02022649042322214</v>
+        <v>0.02101124032584274</v>
       </c>
       <c r="G76" s="100" t="n">
         <v>0.3982666306917085</v>
       </c>
       <c r="H76" s="100" t="n"/>
       <c r="J76" s="60" t="n">
-        <v>0.02022649042322214</v>
+        <v>0.02101124032584274</v>
       </c>
       <c r="K76" s="100" t="n">
         <v>0.3982666306917085</v>
       </c>
       <c r="L76" s="57" t="n">
-        <v>0.03386939298889691</v>
+        <v>0.03140801680436561</v>
       </c>
       <c r="M76" s="60" t="n">
         <v>0.3982666306917085</v>
       </c>
       <c r="N76" s="100" t="n">
-        <v>0.03807793753945365</v>
+        <v>0.0385706412804111</v>
       </c>
       <c r="O76" s="57" t="n">
         <v>0.3982666306917085</v>
@@ -3161,25 +3161,25 @@
     </row>
     <row r="77" ht="15" customHeight="1">
       <c r="F77" t="n">
-        <v>0.02155272249521019</v>
+        <v>0.0223325846409344</v>
       </c>
       <c r="G77" t="n">
         <v>0.4344726880273184</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02155272249521019</v>
+        <v>0.0223325846409344</v>
       </c>
       <c r="K77" t="n">
         <v>0.4344726880273184</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03617799364659149</v>
+        <v>0.03413280976478574</v>
       </c>
       <c r="M77" t="n">
         <v>0.4344726880273184</v>
       </c>
       <c r="N77" t="n">
-        <v>0.04071437702848653</v>
+        <v>0.04245823024925522</v>
       </c>
       <c r="O77" t="n">
         <v>0.4344726880273184</v>
@@ -3188,25 +3188,25 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" s="101" t="n"/>
       <c r="F78" t="n">
-        <v>0.02312846981535872</v>
+        <v>0.02393533304366846</v>
       </c>
       <c r="G78" t="n">
         <v>0.4706787453629283</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02312846981535872</v>
+        <v>0.02393533304366846</v>
       </c>
       <c r="K78" t="n">
         <v>0.4706787453629283</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04153512329788129</v>
+        <v>0.03863875457404913</v>
       </c>
       <c r="M78" t="n">
         <v>0.4706787453629283</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04364972576476642</v>
+        <v>0.04476693678493236</v>
       </c>
       <c r="O78" t="n">
         <v>0.4706787453629283</v>
@@ -3216,25 +3216,25 @@
       <c r="A79" s="101" t="n"/>
       <c r="D79" s="57" t="n"/>
       <c r="F79" t="n">
-        <v>0.02731990030882873</v>
+        <v>0.02745247776687089</v>
       </c>
       <c r="G79" t="n">
         <v>0.5068848026985381</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02731990030882873</v>
+        <v>0.02745247776687089</v>
       </c>
       <c r="K79" t="n">
         <v>0.5068848026985381</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04206045736152545</v>
+        <v>0.04042862912496659</v>
       </c>
       <c r="M79" t="n">
         <v>0.5068848026985381</v>
       </c>
       <c r="N79" t="n">
-        <v>0.04697272187293889</v>
+        <v>0.04808965314689253</v>
       </c>
       <c r="O79" t="n">
         <v>0.5068848026985381</v>
@@ -3242,25 +3242,25 @@
     </row>
     <row r="80" ht="15" customHeight="1">
       <c r="F80" t="n">
-        <v>0.02814357834366739</v>
+        <v>0.02884722071775434</v>
       </c>
       <c r="G80" t="n">
         <v>0.543090860034148</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02814357834366739</v>
+        <v>0.02884722071775434</v>
       </c>
       <c r="K80" t="n">
         <v>0.543090860034148</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04500389812276815</v>
+        <v>0.04665101448656506</v>
       </c>
       <c r="M80" t="n">
         <v>0.543090860034148</v>
       </c>
       <c r="N80" t="n">
-        <v>0.05115840367169612</v>
+        <v>0.05363508860757955</v>
       </c>
       <c r="O80" t="n">
         <v>0.543090860034148</v>
@@ -3268,25 +3268,25 @@
     </row>
     <row r="81" ht="15" customHeight="1">
       <c r="F81" t="n">
-        <v>0.03149058898103051</v>
+        <v>0.03008449880205731</v>
       </c>
       <c r="G81" t="n">
         <v>0.5792969173697579</v>
       </c>
       <c r="J81" t="n">
-        <v>0.03149058898103051</v>
+        <v>0.03008449880205731</v>
       </c>
       <c r="K81" t="n">
         <v>0.5792969173697579</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04922394615363891</v>
+        <v>0.04980514825914297</v>
       </c>
       <c r="M81" t="n">
         <v>0.5792969173697579</v>
       </c>
       <c r="N81" t="n">
-        <v>0.05553576941156256</v>
+        <v>0.0580881261694259</v>
       </c>
       <c r="O81" t="n">
         <v>0.5792969173697579</v>
@@ -3296,25 +3296,25 @@
       <c r="A82" s="101" t="n"/>
       <c r="B82" s="101" t="n"/>
       <c r="F82" t="n">
-        <v>0.03242349483630243</v>
+        <v>0.03240217948303904</v>
       </c>
       <c r="G82" t="n">
         <v>0.6155029747053677</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03242349483630243</v>
+        <v>0.03240217948303904</v>
       </c>
       <c r="K82" t="n">
         <v>0.6155029747053677</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05443800620818647</v>
+        <v>0.04951254374990151</v>
       </c>
       <c r="M82" t="n">
         <v>0.6155029747053677</v>
       </c>
       <c r="N82" t="n">
-        <v>0.0576984595566231</v>
+        <v>0.06012306615216884</v>
       </c>
       <c r="O82" t="n">
         <v>0.6155029747053677</v>
@@ -3322,25 +3322,25 @@
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="F83" t="n">
-        <v>0.03391290618916868</v>
+        <v>0.03621424503176444</v>
       </c>
       <c r="G83" t="n">
         <v>0.6517090320409776</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03391290618916868</v>
+        <v>0.03621424503176444</v>
       </c>
       <c r="K83" t="n">
         <v>0.6517090320409776</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05635272330051837</v>
+        <v>0.05526292843736883</v>
       </c>
       <c r="M83" t="n">
         <v>0.6517090320409776</v>
       </c>
       <c r="N83" t="n">
-        <v>0.06586423636989173</v>
+        <v>0.06393574302916712</v>
       </c>
       <c r="O83" t="n">
         <v>0.6517090320409776</v>
@@ -3348,25 +3348,25 @@
     </row>
     <row r="84" ht="15" customHeight="1">
       <c r="F84" t="n">
-        <v>0.03697276711299364</v>
+        <v>0.03594873776216907</v>
       </c>
       <c r="G84" t="n">
         <v>0.6879150893765874</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03697276711299364</v>
+        <v>0.03594873776216907</v>
       </c>
       <c r="K84" t="n">
         <v>0.6879150893765874</v>
       </c>
       <c r="L84" t="n">
-        <v>0.061325324462024</v>
+        <v>0.05507080480835009</v>
       </c>
       <c r="M84" t="n">
         <v>0.6879150893765874</v>
       </c>
       <c r="N84" t="n">
-        <v>0.06764337760798277</v>
+        <v>0.06484750502707994</v>
       </c>
       <c r="O84" t="n">
         <v>0.6879150893765874</v>
@@ -3377,25 +3377,25 @@
       <c r="B85" s="57" t="n"/>
       <c r="D85" s="101" t="n"/>
       <c r="F85" t="n">
-        <v>0.0364812877394164</v>
+        <v>0.03880022615787179</v>
       </c>
       <c r="G85" t="n">
         <v>0.7241211467121973</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0364812877394164</v>
+        <v>0.03880022615787179</v>
       </c>
       <c r="K85" t="n">
         <v>0.7241211467121973</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0607640532256308</v>
+        <v>0.05900401291832737</v>
       </c>
       <c r="M85" t="n">
         <v>0.7241211467121973</v>
       </c>
       <c r="N85" t="n">
-        <v>0.07193378564150811</v>
+        <v>0.07213287926765574</v>
       </c>
       <c r="O85" t="n">
         <v>0.7241211467121973</v>
@@ -3406,25 +3406,25 @@
       <c r="B86" s="57" t="n"/>
       <c r="D86" s="101" t="n"/>
       <c r="F86" t="n">
-        <v>0.03788566022359845</v>
+        <v>0.03924203616345007</v>
       </c>
       <c r="G86" t="n">
         <v>0.7603272040478072</v>
       </c>
       <c r="J86" t="n">
-        <v>0.03788566022359845</v>
+        <v>0.03924203616345007</v>
       </c>
       <c r="K86" t="n">
         <v>0.7603272040478072</v>
       </c>
       <c r="L86" t="n">
-        <v>0.06522681348059743</v>
+        <v>0.06400811984776338</v>
       </c>
       <c r="M86" t="n">
         <v>0.7603272040478072</v>
       </c>
       <c r="N86" t="n">
-        <v>0.07223704935188462</v>
+        <v>0.07117890218525101</v>
       </c>
       <c r="O86" t="n">
         <v>0.7603272040478072</v>
@@ -3432,25 +3432,25 @@
     </row>
     <row r="87" ht="15" customHeight="1">
       <c r="F87" t="n">
-        <v>0.03940422695637526</v>
+        <v>0.04066784477871072</v>
       </c>
       <c r="G87" t="n">
         <v>0.7965332613834171</v>
       </c>
       <c r="J87" t="n">
-        <v>0.03940422695637526</v>
+        <v>0.04066784477871072</v>
       </c>
       <c r="K87" t="n">
         <v>0.7965332613834171</v>
       </c>
       <c r="L87" t="n">
-        <v>0.06880995833514984</v>
+        <v>0.0630023797955865</v>
       </c>
       <c r="M87" t="n">
         <v>0.7965332613834171</v>
       </c>
       <c r="N87" t="n">
-        <v>0.07842615030479991</v>
+        <v>0.0742384215641987</v>
       </c>
       <c r="O87" t="n">
         <v>0.7965332613834171</v>
@@ -3461,25 +3461,25 @@
       <c r="C88" s="59" t="n"/>
       <c r="D88" s="59" t="n"/>
       <c r="F88" t="n">
-        <v>0.04334141495410301</v>
+        <v>0.04231071070268498</v>
       </c>
       <c r="G88" t="n">
         <v>0.832739318719027</v>
       </c>
       <c r="J88" t="n">
-        <v>0.04334141495410301</v>
+        <v>0.04231071070268498</v>
       </c>
       <c r="K88" t="n">
         <v>0.832739318719027</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06726564850180367</v>
+        <v>0.06909696178361341</v>
       </c>
       <c r="M88" t="n">
         <v>0.832739318719027</v>
       </c>
       <c r="N88" t="n">
-        <v>0.07861979734885663</v>
+        <v>0.07579126778639192</v>
       </c>
       <c r="O88" t="n">
         <v>0.832739318719027</v>
@@ -3489,25 +3489,25 @@
       <c r="A89" s="57" t="n"/>
       <c r="B89" s="57" t="n"/>
       <c r="F89" t="n">
-        <v>0.04493858336770318</v>
+        <v>0.04299180897851286</v>
       </c>
       <c r="G89" t="n">
         <v>0.8689453760546368</v>
       </c>
       <c r="J89" t="n">
-        <v>0.04493858336770318</v>
+        <v>0.04299180897851286</v>
       </c>
       <c r="K89" t="n">
         <v>0.8689453760546368</v>
       </c>
       <c r="L89" t="n">
-        <v>0.07313489138311055</v>
+        <v>0.06687037905704102</v>
       </c>
       <c r="M89" t="n">
         <v>0.8689453760546368</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08286809116319246</v>
+        <v>0.08207558330995773</v>
       </c>
       <c r="O89" t="n">
         <v>0.8689453760546368</v>
@@ -3515,25 +3515,25 @@
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.04305697041328888</v>
+        <v>0.04416890067271576</v>
       </c>
       <c r="G90" t="n">
         <v>0.9051514333902466</v>
       </c>
       <c r="J90" t="n">
-        <v>0.04305697041328888</v>
+        <v>0.04416890067271576</v>
       </c>
       <c r="K90" t="n">
         <v>0.9051514333902466</v>
       </c>
       <c r="L90" t="n">
-        <v>0.07328184565893951</v>
+        <v>0.07210299802374114</v>
       </c>
       <c r="M90" t="n">
         <v>0.9051514333902466</v>
       </c>
       <c r="N90" t="n">
-        <v>0.08478050437083401</v>
+        <v>0.08078716993860875</v>
       </c>
       <c r="O90" t="n">
         <v>0.9051514333902466</v>
@@ -3541,25 +3541,25 @@
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.04689621287666753</v>
+        <v>0.04604104886340547</v>
       </c>
       <c r="G91" t="n">
         <v>0.9413574907258565</v>
       </c>
       <c r="J91" t="n">
-        <v>0.04689621287666753</v>
+        <v>0.04604104886340547</v>
       </c>
       <c r="K91" t="n">
         <v>0.9413574907258565</v>
       </c>
       <c r="L91" t="n">
-        <v>0.07520981954138471</v>
+        <v>0.07306976979033543</v>
       </c>
       <c r="M91" t="n">
         <v>0.9413574907258565</v>
       </c>
       <c r="N91" t="n">
-        <v>0.08685211847588574</v>
+        <v>0.08361231194089509</v>
       </c>
       <c r="O91" t="n">
         <v>0.9413574907258565</v>
@@ -3567,25 +3567,25 @@
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.04620977009033837</v>
+        <v>0.04767488889639181</v>
       </c>
       <c r="G92" t="n">
         <v>0.9775635480614664</v>
       </c>
       <c r="J92" t="n">
-        <v>0.04620977009033837</v>
+        <v>0.04767488889639181</v>
       </c>
       <c r="K92" t="n">
         <v>0.9775635480614664</v>
       </c>
       <c r="L92" t="n">
-        <v>0.07443326883590649</v>
+        <v>0.07399241960066705</v>
       </c>
       <c r="M92" t="n">
         <v>0.9775635480614664</v>
       </c>
       <c r="N92" t="n">
-        <v>0.08292302255442457</v>
+        <v>0.08626943061390221</v>
       </c>
       <c r="O92" t="n">
         <v>0.9775635480614664</v>
@@ -3593,25 +3593,25 @@
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.04832099325143078</v>
+        <v>0.05099501259829402</v>
       </c>
       <c r="G93" t="n">
         <v>1.013769605397076</v>
       </c>
       <c r="J93" t="n">
-        <v>0.04832099325143078</v>
+        <v>0.05099501259829402</v>
       </c>
       <c r="K93" t="n">
         <v>1.013769605397076</v>
       </c>
       <c r="L93" t="n">
-        <v>0.08056620510089139</v>
+        <v>0.07930005430614261</v>
       </c>
       <c r="M93" t="n">
         <v>1.013769605397076</v>
       </c>
       <c r="N93" t="n">
-        <v>0.08587694352668385</v>
+        <v>0.08852938189425666</v>
       </c>
       <c r="O93" t="n">
         <v>1.013769605397076</v>
@@ -3619,25 +3619,25 @@
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.04702730249112151</v>
+        <v>0.04849121293512258</v>
       </c>
       <c r="G94" t="n">
         <v>1.049975662732686</v>
       </c>
       <c r="J94" t="n">
-        <v>0.04702730249112151</v>
+        <v>0.04849121293512258</v>
       </c>
       <c r="K94" t="n">
         <v>1.049975662732686</v>
       </c>
       <c r="L94" t="n">
-        <v>0.07967831732381887</v>
+        <v>0.07730305699031326</v>
       </c>
       <c r="M94" t="n">
         <v>1.049975662732686</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09065444321246433</v>
+        <v>0.09469784071838265</v>
       </c>
       <c r="O94" t="n">
         <v>1.049975662732686</v>
@@ -3645,25 +3645,25 @@
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.04948543731387834</v>
+        <v>0.04988936761582229</v>
       </c>
       <c r="G95" t="n">
         <v>1.086181720068296</v>
       </c>
       <c r="J95" t="n">
-        <v>0.04948543731387834</v>
+        <v>0.04988936761582229</v>
       </c>
       <c r="K95" t="n">
         <v>1.086181720068296</v>
       </c>
       <c r="L95" t="n">
-        <v>0.08430179205130822</v>
+        <v>0.08131988606469448</v>
       </c>
       <c r="M95" t="n">
         <v>1.086181720068296</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09539564062774088</v>
+        <v>0.09032133202995309</v>
       </c>
       <c r="O95" t="n">
         <v>1.086181720068296</v>
@@ -3671,25 +3671,25 @@
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.0533349717795427</v>
+        <v>0.05446979329504445</v>
       </c>
       <c r="G96" t="n">
         <v>1.122387777403906</v>
       </c>
       <c r="J96" t="n">
-        <v>0.0533349717795427</v>
+        <v>0.05446979329504445</v>
       </c>
       <c r="K96" t="n">
         <v>1.122387777403906</v>
       </c>
       <c r="L96" t="n">
-        <v>0.08517726831999949</v>
+        <v>0.07931982628713384</v>
       </c>
       <c r="M96" t="n">
         <v>1.122387777403906</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09893724864878695</v>
+        <v>0.09831215260200192</v>
       </c>
       <c r="O96" t="n">
         <v>1.122387777403906</v>
@@ -3697,25 +3697,25 @@
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.05226664939459148</v>
+        <v>0.05193543534706432</v>
       </c>
       <c r="G97" t="n">
         <v>1.158593834739516</v>
       </c>
       <c r="J97" t="n">
-        <v>0.05226664939459148</v>
+        <v>0.05193543534706432</v>
       </c>
       <c r="K97" t="n">
         <v>1.158593834739516</v>
       </c>
       <c r="L97" t="n">
-        <v>0.08730430209360546</v>
+        <v>0.08450480091295429</v>
       </c>
       <c r="M97" t="n">
         <v>1.158593834739516</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09429948730535669</v>
+        <v>0.100136880393814</v>
       </c>
       <c r="O97" t="n">
         <v>1.158593834739516</v>
@@ -3723,25 +3723,25 @@
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.05106832887423914</v>
+        <v>0.05312014365227892</v>
       </c>
       <c r="G98" t="n">
         <v>1.194799892075125</v>
       </c>
       <c r="J98" t="n">
-        <v>0.05106832887423914</v>
+        <v>0.05312014365227892</v>
       </c>
       <c r="K98" t="n">
         <v>1.194799892075125</v>
       </c>
       <c r="L98" t="n">
-        <v>0.08634426932208421</v>
+        <v>0.08500368736463619</v>
       </c>
       <c r="M98" t="n">
         <v>1.194799892075125</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1021524823990763</v>
+        <v>0.1010664707113735</v>
       </c>
       <c r="O98" t="n">
         <v>1.194799892075125</v>
@@ -3749,25 +3749,25 @@
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.05295190954179822</v>
+        <v>0.05515188542712363</v>
       </c>
       <c r="G99" t="n">
         <v>1.231005949410735</v>
       </c>
       <c r="J99" t="n">
-        <v>0.05295190954179822</v>
+        <v>0.05515188542712363</v>
       </c>
       <c r="K99" t="n">
         <v>1.231005949410735</v>
       </c>
       <c r="L99" t="n">
-        <v>0.08673164293210425</v>
+        <v>0.08899467235862921</v>
       </c>
       <c r="M99" t="n">
         <v>1.231005949410735</v>
       </c>
       <c r="N99" t="n">
-        <v>0.09895265747045023</v>
+        <v>0.09988249775507332</v>
       </c>
       <c r="O99" t="n">
         <v>1.231005949410735</v>
@@ -3775,25 +3775,25 @@
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.0563634629402482</v>
+        <v>0.05794330516123947</v>
       </c>
       <c r="G100" t="n">
         <v>1.267212006746345</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0563634629402482</v>
+        <v>0.05794330516123947</v>
       </c>
       <c r="K100" t="n">
         <v>1.267212006746345</v>
       </c>
       <c r="L100" t="n">
-        <v>0.08810329351566365</v>
+        <v>0.08464169925867532</v>
       </c>
       <c r="M100" t="n">
         <v>1.267212006746345</v>
       </c>
       <c r="N100" t="n">
-        <v>0.09778549623408268</v>
+        <v>0.10403374277227</v>
       </c>
       <c r="O100" t="n">
         <v>1.267212006746345</v>
@@ -3801,25 +3801,25 @@
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.05541099798787388</v>
+        <v>0.05998402904888401</v>
       </c>
       <c r="G101" t="n">
         <v>1.303418064081955</v>
       </c>
       <c r="J101" t="n">
-        <v>0.05541099798787388</v>
+        <v>0.05998402904888401</v>
       </c>
       <c r="K101" t="n">
         <v>1.303418064081955</v>
       </c>
       <c r="L101" t="n">
-        <v>0.09432382521025566</v>
+        <v>0.09062572268125164</v>
       </c>
       <c r="M101" t="n">
         <v>1.303418064081955</v>
       </c>
       <c r="N101" t="n">
-        <v>0.09909463827408778</v>
+        <v>0.1004862122096301</v>
       </c>
       <c r="O101" t="n">
         <v>1.303418064081955</v>
@@ -3827,25 +3827,25 @@
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.05729406053764544</v>
+        <v>0.05972207954750115</v>
       </c>
       <c r="G102" t="n">
         <v>1.339624121417565</v>
       </c>
       <c r="J102" t="n">
-        <v>0.05729406053764544</v>
+        <v>0.05972207954750115</v>
       </c>
       <c r="K102" t="n">
         <v>1.339624121417565</v>
       </c>
       <c r="L102" t="n">
-        <v>0.09575431180470967</v>
+        <v>0.09187503760280175</v>
       </c>
       <c r="M102" t="n">
         <v>1.339624121417565</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1031566007789368</v>
+        <v>0.1101845683849389</v>
       </c>
       <c r="O102" t="n">
         <v>1.339624121417565</v>
@@ -3853,25 +3853,25 @@
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.05847140022639118</v>
+        <v>0.06030367069481635</v>
       </c>
       <c r="G103" t="n">
         <v>1.375830178753175</v>
       </c>
       <c r="J103" t="n">
-        <v>0.05847140022639118</v>
+        <v>0.06030367069481635</v>
       </c>
       <c r="K103" t="n">
         <v>1.375830178753175</v>
       </c>
       <c r="L103" t="n">
-        <v>0.09149522114645203</v>
+        <v>0.08736339442823969</v>
       </c>
       <c r="M103" t="n">
         <v>1.375830178753175</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1044822325190558</v>
+        <v>0.107737751961856</v>
       </c>
       <c r="O103" t="n">
         <v>1.375830178753175</v>
@@ -3879,25 +3879,25 @@
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.05810336832512369</v>
+        <v>0.05785437991932903</v>
       </c>
       <c r="G104" t="n">
         <v>1.412036236088785</v>
       </c>
       <c r="J104" t="n">
-        <v>0.05810336832512369</v>
+        <v>0.05785437991932903</v>
       </c>
       <c r="K104" t="n">
         <v>1.412036236088785</v>
       </c>
       <c r="L104" t="n">
-        <v>0.0978101029342713</v>
+        <v>0.09258664464038432</v>
       </c>
       <c r="M104" t="n">
         <v>1.412036236088785</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1043402813087472</v>
+        <v>0.1093878344626054</v>
       </c>
       <c r="O104" t="n">
         <v>1.412036236088785</v>
@@ -3905,25 +3905,25 @@
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.05751467065001931</v>
+        <v>0.05980333800534098</v>
       </c>
       <c r="G105" t="n">
         <v>1.448242293424395</v>
       </c>
       <c r="J105" t="n">
-        <v>0.05751467065001931</v>
+        <v>0.05980333800534098</v>
       </c>
       <c r="K105" t="n">
         <v>1.448242293424395</v>
       </c>
       <c r="L105" t="n">
-        <v>0.09592983400339467</v>
+        <v>0.09048350801766941</v>
       </c>
       <c r="M105" t="n">
         <v>1.448242293424395</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1063430895041976</v>
+        <v>0.1101857529824659</v>
       </c>
       <c r="O105" t="n">
         <v>1.448242293424395</v>
@@ -3931,25 +3931,25 @@
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.06167834117236165</v>
+        <v>0.05899124258068913</v>
       </c>
       <c r="G106" t="n">
         <v>1.484448350760005</v>
       </c>
       <c r="J106" t="n">
-        <v>0.06167834117236165</v>
+        <v>0.05899124258068913</v>
       </c>
       <c r="K106" t="n">
         <v>1.484448350760005</v>
       </c>
       <c r="L106" t="n">
-        <v>0.09690438071740208</v>
+        <v>0.09756738743942553</v>
       </c>
       <c r="M106" t="n">
         <v>1.484448350760005</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1094278319703004</v>
+        <v>0.1164283776266761</v>
       </c>
       <c r="O106" t="n">
         <v>1.484448350760005</v>
@@ -3957,25 +3957,25 @@
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.05950589353506405</v>
+        <v>0.05934863969576883</v>
       </c>
       <c r="G107" t="n">
         <v>1.520654408095614</v>
       </c>
       <c r="J107" t="n">
-        <v>0.05950589353506405</v>
+        <v>0.05934863969576883</v>
       </c>
       <c r="K107" t="n">
         <v>1.520654408095614</v>
       </c>
       <c r="L107" t="n">
-        <v>0.09877289079337954</v>
+        <v>0.09318123656738313</v>
       </c>
       <c r="M107" t="n">
         <v>1.520654408095614</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1138591959511442</v>
+        <v>0.1096772010684367</v>
       </c>
       <c r="O107" t="n">
         <v>1.520654408095614</v>
@@ -3983,25 +3983,25 @@
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.06216599294658455</v>
+        <v>0.06393320590113181</v>
       </c>
       <c r="G108" t="n">
         <v>1.556860465431224</v>
       </c>
       <c r="J108" t="n">
-        <v>0.06216599294658455</v>
+        <v>0.06393320590113181</v>
       </c>
       <c r="K108" t="n">
         <v>1.556860465431224</v>
       </c>
       <c r="L108" t="n">
-        <v>0.100248997321916</v>
+        <v>0.09770100948583355</v>
       </c>
       <c r="M108" t="n">
         <v>1.556860465431224</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1121802809659344</v>
+        <v>0.1172623267927766</v>
       </c>
       <c r="O108" t="n">
         <v>1.556860465431224</v>
@@ -4009,25 +4009,25 @@
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.05968033099798239</v>
+        <v>0.06114791839244355</v>
       </c>
       <c r="G109" t="n">
         <v>1.593066522766834</v>
       </c>
       <c r="J109" t="n">
-        <v>0.05968033099798239</v>
+        <v>0.06114791839244355</v>
       </c>
       <c r="K109" t="n">
         <v>1.593066522766834</v>
       </c>
       <c r="L109" t="n">
-        <v>0.1018822308038641</v>
+        <v>0.1009482349795202</v>
       </c>
       <c r="M109" t="n">
         <v>1.593066522766834</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1096589156987315</v>
+        <v>0.1199881025329765</v>
       </c>
       <c r="O109" t="n">
         <v>1.593066522766834</v>
@@ -4035,25 +4035,25 @@
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.05928853394457462</v>
+        <v>0.06495591618318734</v>
       </c>
       <c r="G110" t="n">
         <v>1.629272580102444</v>
       </c>
       <c r="J110" t="n">
-        <v>0.05928853394457462</v>
+        <v>0.06495591618318734</v>
       </c>
       <c r="K110" t="n">
         <v>1.629272580102444</v>
       </c>
       <c r="L110" t="n">
-        <v>0.1014636095885436</v>
+        <v>0.102339563636642</v>
       </c>
       <c r="M110" t="n">
         <v>1.629272580102444</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1108708692069571</v>
+        <v>0.1129898576849456</v>
       </c>
       <c r="O110" t="n">
         <v>1.629272580102444</v>
@@ -4061,25 +4061,25 @@
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.06048552474885362</v>
+        <v>0.0636116817667394</v>
       </c>
       <c r="G111" t="n">
         <v>1.665478637438054</v>
       </c>
       <c r="J111" t="n">
-        <v>0.06048552474885362</v>
+        <v>0.0636116817667394</v>
       </c>
       <c r="K111" t="n">
         <v>1.665478637438054</v>
       </c>
       <c r="L111" t="n">
-        <v>0.1036545083625282</v>
+        <v>0.09513749417328192</v>
       </c>
       <c r="M111" t="n">
         <v>1.665478637438054</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1124391071654381</v>
+        <v>0.1148262122068563</v>
       </c>
       <c r="O111" t="n">
         <v>1.665478637438054</v>
@@ -4087,25 +4087,25 @@
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.06025179727660962</v>
+        <v>0.06533512153616083</v>
       </c>
       <c r="G112" t="n">
         <v>1.701684694773664</v>
       </c>
       <c r="J112" t="n">
-        <v>0.06025179727660962</v>
+        <v>0.06533512153616083</v>
       </c>
       <c r="K112" t="n">
         <v>1.701684694773664</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1073441027937626</v>
+        <v>0.09804520951439924</v>
       </c>
       <c r="M112" t="n">
         <v>1.701684694773664</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1129874807172191</v>
+        <v>0.115441944675417</v>
       </c>
       <c r="O112" t="n">
         <v>1.701684694773664</v>
@@ -4113,25 +4113,25 @@
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.06058698388367134</v>
+        <v>0.06333195014520696</v>
       </c>
       <c r="G113" t="n">
         <v>1.737890752109274</v>
       </c>
       <c r="J113" t="n">
-        <v>0.06058698388367134</v>
+        <v>0.06333195014520696</v>
       </c>
       <c r="K113" t="n">
         <v>1.737890752109274</v>
       </c>
       <c r="L113" t="n">
-        <v>0.1076574376922802</v>
+        <v>0.1006997199261368</v>
       </c>
       <c r="M113" t="n">
         <v>1.737890752109274</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1139233457962508</v>
+        <v>0.1200657215077312</v>
       </c>
       <c r="O113" t="n">
         <v>1.737890752109274</v>
@@ -4139,25 +4139,25 @@
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.06426355889486136</v>
+        <v>0.06390248809889634</v>
       </c>
       <c r="G114" t="n">
         <v>1.774096809444883</v>
       </c>
       <c r="J114" t="n">
-        <v>0.06426355889486136</v>
+        <v>0.06390248809889634</v>
       </c>
       <c r="K114" t="n">
         <v>1.774096809444883</v>
       </c>
       <c r="L114" t="n">
-        <v>0.1051930268745974</v>
+        <v>0.1020069421767773</v>
       </c>
       <c r="M114" t="n">
         <v>1.774096809444883</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1201940609334541</v>
+        <v>0.1246161474842642</v>
       </c>
       <c r="O114" t="n">
         <v>1.774096809444883</v>
@@ -4165,25 +4165,25 @@
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.06633821820356016</v>
+        <v>0.06568473903337489</v>
       </c>
       <c r="G115" t="n">
         <v>1.810302866780493</v>
       </c>
       <c r="J115" t="n">
-        <v>0.06633821820356016</v>
+        <v>0.06568473903337489</v>
       </c>
       <c r="K115" t="n">
         <v>1.810302866780493</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1022834621521706</v>
+        <v>0.1006911003943619</v>
       </c>
       <c r="M115" t="n">
         <v>1.810302866780493</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1160721509788172</v>
+        <v>0.1153957129945229</v>
       </c>
       <c r="O115" t="n">
         <v>1.810302866780493</v>
@@ -4191,25 +4191,25 @@
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.06300450916692807</v>
+        <v>0.06571959170542549</v>
       </c>
       <c r="G116" t="n">
         <v>1.846508924116103</v>
       </c>
       <c r="J116" t="n">
-        <v>0.06300450916692807</v>
+        <v>0.06571959170542549</v>
       </c>
       <c r="K116" t="n">
         <v>1.846508924116103</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1076613222498891</v>
+        <v>0.09972225932374505</v>
       </c>
       <c r="M116" t="n">
         <v>1.846508924116103</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1216156508407184</v>
+        <v>0.1166317053615423</v>
       </c>
       <c r="O116" t="n">
         <v>1.846508924116103</v>
@@ -4217,25 +4217,25 @@
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.06232603121033114</v>
+        <v>0.06555910768028572</v>
       </c>
       <c r="G117" t="n">
         <v>1.882714981451713</v>
       </c>
       <c r="J117" t="n">
-        <v>0.06232603121033114</v>
+        <v>0.06555910768028572</v>
       </c>
       <c r="K117" t="n">
         <v>1.882714981451713</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1062875852433623</v>
+        <v>0.09988637869895983</v>
       </c>
       <c r="M117" t="n">
         <v>1.882714981451713</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1199379777850952</v>
+        <v>0.1189504733005099</v>
       </c>
       <c r="O117" t="n">
         <v>1.882714981451713</v>
@@ -4243,25 +4243,25 @@
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.06523612279183699</v>
+        <v>0.06677908686016856</v>
       </c>
       <c r="G118" t="n">
         <v>1.918921038787323</v>
       </c>
       <c r="J118" t="n">
-        <v>0.06523612279183699</v>
+        <v>0.06677908686016856</v>
       </c>
       <c r="K118" t="n">
         <v>1.918921038787323</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1066999992508128</v>
+        <v>0.1047203262349482</v>
       </c>
       <c r="M118" t="n">
         <v>1.918921038787323</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1221971082289791</v>
+        <v>0.1206705705750052</v>
       </c>
       <c r="O118" t="n">
         <v>1.918921038787323</v>
@@ -4269,25 +4269,25 @@
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.06729757170326864</v>
+        <v>0.06599879491916731</v>
       </c>
       <c r="G119" t="n">
         <v>1.955127096122933</v>
       </c>
       <c r="J119" t="n">
-        <v>0.06729757170326864</v>
+        <v>0.06599879491916731</v>
       </c>
       <c r="K119" t="n">
         <v>1.955127096122933</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1061843766750594</v>
+        <v>0.1038398438485774</v>
       </c>
       <c r="M119" t="n">
         <v>1.955127096122933</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1160384174778033</v>
+        <v>0.1193315614082441</v>
       </c>
       <c r="O119" t="n">
         <v>1.955127096122933</v>
@@ -4295,25 +4295,25 @@
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.06392171251833351</v>
+        <v>0.06794708459361844</v>
       </c>
       <c r="G120" t="n">
         <v>1.991333153458543</v>
       </c>
       <c r="J120" t="n">
-        <v>0.06392171251833351</v>
+        <v>0.06794708459361844</v>
       </c>
       <c r="K120" t="n">
         <v>1.991333153458543</v>
       </c>
       <c r="L120" t="n">
-        <v>0.1080904021116092</v>
+        <v>0.1094598448600363</v>
       </c>
       <c r="M120" t="n">
         <v>1.991333153458543</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1184947603189889</v>
+        <v>0.120800058751225</v>
       </c>
       <c r="O120" t="n">
         <v>1.991333153458543</v>
@@ -4321,25 +4321,25 @@
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.06844976434301205</v>
+        <v>0.06919737996638615</v>
       </c>
       <c r="G121" t="n">
         <v>2.027539210794152</v>
       </c>
       <c r="J121" t="n">
-        <v>0.06844976434301205</v>
+        <v>0.06919737996638615</v>
       </c>
       <c r="K121" t="n">
         <v>2.027539210794152</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1077643985734851</v>
+        <v>0.1077414645259376</v>
       </c>
       <c r="M121" t="n">
         <v>2.027539210794152</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1228044414287006</v>
+        <v>0.1207341394011472</v>
       </c>
       <c r="O121" t="n">
         <v>2.027539210794152</v>
@@ -4347,25 +4347,25 @@
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.06984572661415717</v>
+        <v>0.06614673466925622</v>
       </c>
       <c r="G122" t="n">
         <v>2.063745268129762</v>
       </c>
       <c r="J122" t="n">
-        <v>0.06984572661415717</v>
+        <v>0.06614673466925622</v>
       </c>
       <c r="K122" t="n">
         <v>2.063745268129762</v>
       </c>
       <c r="L122" t="n">
-        <v>0.1054549894129336</v>
+        <v>0.1089657054686635</v>
       </c>
       <c r="M122" t="n">
         <v>2.063745268129762</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1204371529357007</v>
+        <v>0.1235147579912919</v>
       </c>
       <c r="O122" t="n">
         <v>2.063745268129762</v>
@@ -4373,25 +4373,25 @@
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.0672573764528494</v>
+        <v>0.06613635779746312</v>
       </c>
       <c r="G123" t="n">
         <v>2.099951325465372</v>
       </c>
       <c r="J123" t="n">
-        <v>0.0672573764528494</v>
+        <v>0.06613635779746312</v>
       </c>
       <c r="K123" t="n">
         <v>2.099951325465372</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1097773452143412</v>
+        <v>0.1038238026511368</v>
       </c>
       <c r="M123" t="n">
         <v>2.099951325465372</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1187387176248983</v>
+        <v>0.1230101878672505</v>
       </c>
       <c r="O123" t="n">
         <v>2.099951325465372</v>
@@ -4399,25 +4399,25 @@
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.06540150474610817</v>
+        <v>0.07003250294221368</v>
       </c>
       <c r="G124" t="n">
         <v>2.136157382800982</v>
       </c>
       <c r="J124" t="n">
-        <v>0.06540150474610817</v>
+        <v>0.07003250294221368</v>
       </c>
       <c r="K124" t="n">
         <v>2.136157382800982</v>
       </c>
       <c r="L124" t="n">
-        <v>0.1075268680399046</v>
+        <v>0.1091288416503259</v>
       </c>
       <c r="M124" t="n">
         <v>2.136157382800982</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1228296332191561</v>
+        <v>0.1247013481888605</v>
       </c>
       <c r="O124" t="n">
         <v>2.136157382800982</v>
@@ -4425,25 +4425,25 @@
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.06469839720894871</v>
+        <v>0.06800163349256497</v>
       </c>
       <c r="G125" t="n">
         <v>2.172363440136592</v>
       </c>
       <c r="J125" t="n">
-        <v>0.06469839720894871</v>
+        <v>0.06800163349256497</v>
       </c>
       <c r="K125" t="n">
         <v>2.172363440136592</v>
       </c>
       <c r="L125" t="n">
-        <v>0.1071566383512911</v>
+        <v>0.1042427698828437</v>
       </c>
       <c r="M125" t="n">
         <v>2.172363440136592</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1292969565288856</v>
+        <v>0.1242787543259102</v>
       </c>
       <c r="O125" t="n">
         <v>2.172363440136592</v>
@@ -4451,25 +4451,25 @@
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.06719692990104399</v>
+        <v>0.07108532476980359</v>
       </c>
       <c r="G126" t="n">
         <v>2.208569497472202</v>
       </c>
       <c r="J126" t="n">
-        <v>0.06719692990104399</v>
+        <v>0.07108532476980359</v>
       </c>
       <c r="K126" t="n">
         <v>2.208569497472202</v>
       </c>
       <c r="L126" t="n">
-        <v>0.1114808798713236</v>
+        <v>0.1098603178219461</v>
       </c>
       <c r="M126" t="n">
         <v>2.208569497472202</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1284150741860696</v>
+        <v>0.1286227328434786</v>
       </c>
       <c r="O126" t="n">
         <v>2.208569497472202</v>
@@ -4477,25 +4477,25 @@
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.06547456053915167</v>
+        <v>0.06757721606573652</v>
       </c>
       <c r="G127" t="n">
         <v>2.244775554807812</v>
       </c>
       <c r="J127" t="n">
-        <v>0.06547456053915167</v>
+        <v>0.06757721606573652</v>
       </c>
       <c r="K127" t="n">
         <v>2.244775554807812</v>
       </c>
       <c r="L127" t="n">
-        <v>0.1132926713969981</v>
+        <v>0.1103290772947504</v>
       </c>
       <c r="M127" t="n">
         <v>2.244775554807812</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1268301131922774</v>
+        <v>0.1290188453555624</v>
       </c>
       <c r="O127" t="n">
         <v>2.244775554807812</v>
@@ -4503,25 +4503,25 @@
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.06773502691896258</v>
+        <v>0.07246585362319646</v>
       </c>
       <c r="G128" t="n">
         <v>2.280981612143421</v>
       </c>
       <c r="J128" t="n">
-        <v>0.06773502691896258</v>
+        <v>0.07246585362319646</v>
       </c>
       <c r="K128" t="n">
         <v>2.280981612143421</v>
       </c>
       <c r="L128" t="n">
-        <v>0.1142624795652217</v>
+        <v>0.110427985578625</v>
       </c>
       <c r="M128" t="n">
         <v>2.280981612143421</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1218716161929252</v>
+        <v>0.1225195602641476</v>
       </c>
       <c r="O128" t="n">
         <v>2.280981612143421</v>
@@ -4529,25 +4529,25 @@
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.07081697058751094</v>
+        <v>0.06973502691896258</v>
       </c>
       <c r="G129" t="n">
         <v>2.317187669479031</v>
       </c>
       <c r="J129" t="n">
-        <v>0.07081697058751094</v>
+        <v>0.06973502691896258</v>
       </c>
       <c r="K129" t="n">
         <v>2.317187669479031</v>
       </c>
       <c r="L129" t="n">
-        <v>0.1116025403784438</v>
+        <v>0.1076025403784439</v>
       </c>
       <c r="M129" t="n">
         <v>2.317187669479031</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1254700538379251</v>
+        <v>0.1274700538379251</v>
       </c>
       <c r="O129" t="n">
         <v>2.317187669479031</v>
@@ -4555,25 +4555,25 @@
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.06909578532661939</v>
+        <v>0.07146133745743898</v>
       </c>
       <c r="G130" t="n">
         <v>2.353393726814641</v>
       </c>
       <c r="J130" t="n">
-        <v>0.06909578532661939</v>
+        <v>0.07146133745743898</v>
       </c>
       <c r="K130" t="n">
         <v>2.353393726814641</v>
       </c>
       <c r="L130" t="n">
-        <v>0.1100319751877561</v>
+        <v>0.1126184500388052</v>
       </c>
       <c r="M130" t="n">
         <v>2.353393726814641</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1214214923605799</v>
+        <v>0.1258141663506826</v>
       </c>
       <c r="O130" t="n">
         <v>2.353393726814641</v>
@@ -4581,25 +4581,25 @@
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.07020516536112618</v>
+        <v>0.06809269416236473</v>
       </c>
       <c r="G131" t="n">
         <v>2.389599784150251</v>
       </c>
       <c r="J131" t="n">
-        <v>0.07020516536112618</v>
+        <v>0.06809269416236473</v>
       </c>
       <c r="K131" t="n">
         <v>2.389599784150251</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1121114924827335</v>
+        <v>0.1050493476371732</v>
       </c>
       <c r="M131" t="n">
         <v>2.389599784150251</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1213710744407121</v>
+        <v>0.1301429637590841</v>
       </c>
       <c r="O131" t="n">
         <v>2.389599784150251</v>
@@ -4607,25 +4607,25 @@
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.06757865482041657</v>
+        <v>0.06962027859956463</v>
       </c>
       <c r="G132" t="n">
         <v>2.425805841485861</v>
       </c>
       <c r="J132" t="n">
-        <v>0.06757865482041657</v>
+        <v>0.06962027859956463</v>
       </c>
       <c r="K132" t="n">
         <v>2.425805841485861</v>
       </c>
       <c r="L132" t="n">
-        <v>0.1164535300511139</v>
+        <v>0.11307236692133</v>
       </c>
       <c r="M132" t="n">
         <v>2.425805841485861</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1320897499342824</v>
+        <v>0.134183510569074</v>
       </c>
       <c r="O132" t="n">
         <v>2.425805841485861</v>
@@ -4633,25 +4633,25 @@
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.06636327063734915</v>
+        <v>0.07063032814245143</v>
       </c>
       <c r="G133" t="n">
         <v>2.462011898821471</v>
       </c>
       <c r="J133" t="n">
-        <v>0.06636327063734915</v>
+        <v>0.07063032814245143</v>
       </c>
       <c r="K133" t="n">
         <v>2.462011898821471</v>
       </c>
       <c r="L133" t="n">
-        <v>0.116496363567507</v>
+        <v>0.1127141885185758</v>
       </c>
       <c r="M133" t="n">
         <v>2.462011898821471</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1317148659217094</v>
+        <v>0.1324122061331227</v>
       </c>
       <c r="O133" t="n">
         <v>2.462011898821471</v>
@@ -4659,25 +4659,25 @@
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.06640042768495491</v>
+        <v>0.06921591679578525</v>
       </c>
       <c r="G134" t="n">
         <v>2.498217956157081</v>
       </c>
       <c r="J134" t="n">
-        <v>0.06640042768495491</v>
+        <v>0.06921591679578525</v>
       </c>
       <c r="K134" t="n">
         <v>2.498217956157081</v>
       </c>
       <c r="L134" t="n">
-        <v>0.1156262917137911</v>
+        <v>0.111212049914393</v>
       </c>
       <c r="M134" t="n">
         <v>2.498217956157081</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1277865347270579</v>
+        <v>0.1343898083760962</v>
       </c>
       <c r="O134" t="n">
         <v>2.498217956157081</v>
@@ -4685,25 +4685,25 @@
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.06546322737791833</v>
+        <v>0.06872842720452833</v>
       </c>
       <c r="G135" t="n">
         <v>2.534424013492691</v>
       </c>
       <c r="J135" t="n">
-        <v>0.06546322737791833</v>
+        <v>0.06872842720452833</v>
       </c>
       <c r="K135" t="n">
         <v>2.534424013492691</v>
       </c>
       <c r="L135" t="n">
-        <v>0.114087702066902</v>
+        <v>0.1112096462756959</v>
       </c>
       <c r="M135" t="n">
         <v>2.534424013492691</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1245713933668574</v>
+        <v>0.1269664834147067</v>
       </c>
       <c r="O135" t="n">
         <v>2.534424013492691</v>
@@ -4711,25 +4711,25 @@
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.0673612807843498</v>
+        <v>0.07286461404167041</v>
       </c>
       <c r="G136" t="n">
         <v>2.570630070828301</v>
       </c>
       <c r="J136" t="n">
-        <v>0.0673612807843498</v>
+        <v>0.07286461404167041</v>
       </c>
       <c r="K136" t="n">
         <v>2.570630070828301</v>
       </c>
       <c r="L136" t="n">
-        <v>0.1117101478193337</v>
+        <v>0.1096916057695243</v>
       </c>
       <c r="M136" t="n">
         <v>2.570630070828301</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1252289805178408</v>
+        <v>0.1297161094298687</v>
       </c>
       <c r="O136" t="n">
         <v>2.570630070828301</v>
@@ -4737,25 +4737,25 @@
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.0641455393417458</v>
+        <v>0.07090756795206617</v>
       </c>
       <c r="G137" t="n">
         <v>2.606836128163911</v>
       </c>
       <c r="J137" t="n">
-        <v>0.0641455393417458</v>
+        <v>0.07090756795206617</v>
       </c>
       <c r="K137" t="n">
         <v>2.606836128163911</v>
       </c>
       <c r="L137" t="n">
-        <v>0.1097404630005552</v>
+        <v>0.1142366938359749</v>
       </c>
       <c r="M137" t="n">
         <v>2.606836128163911</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1229254657916068</v>
+        <v>0.1278462013940526</v>
       </c>
       <c r="O137" t="n">
         <v>2.606836128163911</v>
@@ -4763,25 +4763,25 @@
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.06889153595307045</v>
+        <v>0.06810300327009144</v>
       </c>
       <c r="G138" t="n">
         <v>2.64304218549952</v>
       </c>
       <c r="J138" t="n">
-        <v>0.06889153595307045</v>
+        <v>0.06810300327009144</v>
       </c>
       <c r="K138" t="n">
         <v>2.64304218549952</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1109165283819326</v>
+        <v>0.1140810760675927</v>
       </c>
       <c r="M138" t="n">
         <v>2.64304218549952</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1265567220139901</v>
+        <v>0.1258640212680594</v>
       </c>
       <c r="O138" t="n">
         <v>2.64304218549952</v>
@@ -4789,25 +4789,25 @@
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.06576722561421165</v>
+        <v>0.07117541883748722</v>
       </c>
       <c r="G139" t="n">
         <v>2.67924824283513</v>
       </c>
       <c r="J139" t="n">
-        <v>0.06576722561421165</v>
+        <v>0.07117541883748722</v>
       </c>
       <c r="K139" t="n">
         <v>2.67924824283513</v>
       </c>
       <c r="L139" t="n">
-        <v>0.1175569116610396</v>
+        <v>0.1076041249476376</v>
       </c>
       <c r="M139" t="n">
         <v>2.67924824283513</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1274570485365021</v>
+        <v>0.1241820547033426</v>
       </c>
       <c r="O139" t="n">
         <v>2.67924824283513</v>
@@ -4815,25 +4815,25 @@
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.06905082551344718</v>
+        <v>0.07143736635875957</v>
       </c>
       <c r="G140" t="n">
         <v>2.71545430017074</v>
       </c>
       <c r="J140" t="n">
-        <v>0.06905082551344718</v>
+        <v>0.07143736635875957</v>
       </c>
       <c r="K140" t="n">
         <v>2.71545430017074</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1147623168559744</v>
+        <v>0.111066065441561</v>
       </c>
       <c r="M140" t="n">
         <v>2.71545430017074</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1278367727892547</v>
+        <v>0.1332563519576045</v>
       </c>
       <c r="O140" t="n">
         <v>2.71545430017074</v>
@@ -4841,25 +4841,25 @@
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.06702344646502824</v>
+        <v>0.07011138653455898</v>
       </c>
       <c r="G141" t="n">
         <v>2.75166035750635</v>
       </c>
       <c r="J141" t="n">
-        <v>0.06702344646502824</v>
+        <v>0.07011138653455898</v>
       </c>
       <c r="K141" t="n">
         <v>2.75166035750635</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1111575670025587</v>
+        <v>0.1053913022483191</v>
       </c>
       <c r="M141" t="n">
         <v>2.75166035750635</v>
       </c>
       <c r="N141" t="n">
-        <v>0.13103655764414</v>
+        <v>0.1272650558953206</v>
       </c>
       <c r="O141" t="n">
         <v>2.75166035750635</v>
@@ -4867,25 +4867,25 @@
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.06362091924101844</v>
+        <v>0.06995229645218795</v>
       </c>
       <c r="G142" t="n">
         <v>2.78786641484196</v>
       </c>
       <c r="J142" t="n">
-        <v>0.06362091924101844</v>
+        <v>0.06995229645218795</v>
       </c>
       <c r="K142" t="n">
         <v>2.78786641484196</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1140161874062308</v>
+        <v>0.1097228909958698</v>
       </c>
       <c r="M142" t="n">
         <v>2.78786641484196</v>
       </c>
       <c r="N142" t="n">
-        <v>0.131314618321811</v>
+        <v>0.1261840216915471</v>
       </c>
       <c r="O142" t="n">
         <v>2.78786641484196</v>
@@ -4893,25 +4893,25 @@
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.06490287528325273</v>
+        <v>0.07041513241432894</v>
       </c>
       <c r="G143" t="n">
         <v>2.82407247217757</v>
       </c>
       <c r="J143" t="n">
-        <v>0.06490287528325273</v>
+        <v>0.07041513241432894</v>
       </c>
       <c r="K143" t="n">
         <v>2.82407247217757</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1166822211483962</v>
+        <v>0.1090736889897817</v>
       </c>
       <c r="M143" t="n">
         <v>2.82407247217757</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1248797447145529</v>
+        <v>0.1345809365487542</v>
       </c>
       <c r="O143" t="n">
         <v>2.82407247217757</v>
@@ -4919,25 +4919,25 @@
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.06604454871373668</v>
+        <v>0.07343077683433855</v>
       </c>
       <c r="G144" t="n">
         <v>2.86027852951318</v>
       </c>
       <c r="J144" t="n">
-        <v>0.06604454871373668</v>
+        <v>0.07343077683433855</v>
       </c>
       <c r="K144" t="n">
         <v>2.86027852951318</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1185554185347763</v>
+        <v>0.110160728981043</v>
       </c>
       <c r="M144" t="n">
         <v>2.86027852951318</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1342950757506918</v>
+        <v>0.1290892459476279</v>
       </c>
       <c r="O144" t="n">
         <v>2.86027852951318</v>
@@ -4945,25 +4945,25 @@
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.06712122430312849</v>
+        <v>0.07234745846407285</v>
       </c>
       <c r="G145" t="n">
         <v>2.896484586848789</v>
       </c>
       <c r="J145" t="n">
-        <v>0.06712122430312849</v>
+        <v>0.07234745846407285</v>
       </c>
       <c r="K145" t="n">
         <v>2.896484586848789</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1093230615911806</v>
+        <v>0.1149417144571111</v>
       </c>
       <c r="M145" t="n">
         <v>2.896484586848789</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1351180540958505</v>
+        <v>0.1323312777483426</v>
       </c>
       <c r="O145" t="n">
         <v>2.896484586848789</v>
@@ -4971,25 +4971,25 @@
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.0637477955942079</v>
+        <v>0.06902497119835227</v>
       </c>
       <c r="G146" t="n">
         <v>2.932690644184399</v>
       </c>
       <c r="J146" t="n">
-        <v>0.0637477955942079</v>
+        <v>0.06902497119835227</v>
       </c>
       <c r="K146" t="n">
         <v>2.932690644184399</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1140275480570463</v>
+        <v>0.1122458223807183</v>
       </c>
       <c r="M146" t="n">
         <v>2.932690644184399</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1262986677377902</v>
+        <v>0.1352604408563952</v>
       </c>
       <c r="O146" t="n">
         <v>2.932690644184399</v>
@@ -4997,25 +4997,25 @@
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.06643968202881553</v>
+        <v>0.07018683702731357</v>
       </c>
       <c r="G147" t="n">
         <v>2.968896701520009</v>
       </c>
       <c r="J147" t="n">
-        <v>0.06643968202881553</v>
+        <v>0.07018683702731357</v>
       </c>
       <c r="K147" t="n">
         <v>2.968896701520009</v>
       </c>
       <c r="L147" t="n">
-        <v>0.1172369267193987</v>
+        <v>0.1129794065135371</v>
       </c>
       <c r="M147" t="n">
         <v>2.968896701520009</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1343563565883922</v>
+        <v>0.1261318532849187</v>
       </c>
       <c r="O147" t="n">
         <v>2.968896701520009</v>
@@ -5023,25 +5023,25 @@
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.06146258962585145</v>
+        <v>0.07154500115035088</v>
       </c>
       <c r="G148" t="n">
         <v>3.005102758855619</v>
       </c>
       <c r="J148" t="n">
-        <v>0.06146258962585145</v>
+        <v>0.07154500115035088</v>
       </c>
       <c r="K148" t="n">
         <v>3.005102758855619</v>
       </c>
       <c r="L148" t="n">
-        <v>0.1153209121918782</v>
+        <v>0.1102543341087335</v>
       </c>
       <c r="M148" t="n">
         <v>3.005102758855619</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1325015077780443</v>
+        <v>0.1307752944593828</v>
       </c>
       <c r="O148" t="n">
         <v>3.005102758855619</v>
@@ -5049,25 +5049,25 @@
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.06067240809111196</v>
+        <v>0.07245579582605767</v>
       </c>
       <c r="G149" t="n">
         <v>3.041308816191229</v>
       </c>
       <c r="J149" t="n">
-        <v>0.06067240809111196</v>
+        <v>0.07245579582605767</v>
       </c>
       <c r="K149" t="n">
         <v>3.041308816191229</v>
       </c>
       <c r="L149" t="n">
-        <v>0.1164604740549068</v>
+        <v>0.1150246875183218</v>
       </c>
       <c r="M149" t="n">
         <v>3.041308816191229</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1328000169195442</v>
+        <v>0.1286752718150153</v>
       </c>
       <c r="O149" t="n">
         <v>3.041308816191229</v>
@@ -5075,25 +5075,25 @@
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.06477676941132943</v>
+        <v>0.0699654820186376</v>
       </c>
       <c r="G150" t="n">
         <v>3.077514873526839</v>
       </c>
       <c r="J150" t="n">
-        <v>0.06477676941132943</v>
+        <v>0.0699654820186376</v>
       </c>
       <c r="K150" t="n">
         <v>3.077514873526839</v>
       </c>
       <c r="L150" t="n">
-        <v>0.1151342054299164</v>
+        <v>0.1128129010885678</v>
       </c>
       <c r="M150" t="n">
         <v>3.077514873526839</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1269234461051002</v>
+        <v>0.1347420576602052</v>
       </c>
       <c r="O150" t="n">
         <v>3.077514873526839</v>
@@ -5101,25 +5101,25 @@
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.06371873823406221</v>
+        <v>0.07098215185647376</v>
       </c>
       <c r="G151" t="n">
         <v>3.113720930862448</v>
       </c>
       <c r="J151" t="n">
-        <v>0.06371873823406221</v>
+        <v>0.07098215185647376</v>
       </c>
       <c r="K151" t="n">
         <v>3.113720930862448</v>
       </c>
       <c r="L151" t="n">
-        <v>0.1108171893118551</v>
+        <v>0.1060417707792498</v>
       </c>
       <c r="M151" t="n">
         <v>3.113720930862448</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1354134457293369</v>
+        <v>0.1272327439507055</v>
       </c>
       <c r="O151" t="n">
         <v>3.113720930862448</v>
@@ -5127,25 +5127,25 @@
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.06084793191121312</v>
+        <v>0.07106153448052228</v>
       </c>
       <c r="G152" t="n">
         <v>3.149926988198058</v>
       </c>
       <c r="J152" t="n">
-        <v>0.06084793191121312</v>
+        <v>0.07106153448052228</v>
       </c>
       <c r="K152" t="n">
         <v>3.149926988198058</v>
       </c>
       <c r="L152" t="n">
-        <v>0.11910594584567</v>
+        <v>0.1088800913280506</v>
       </c>
       <c r="M152" t="n">
         <v>3.149926988198058</v>
       </c>
       <c r="N152" t="n">
-        <v>0.134092446082595</v>
+        <v>0.1330959348144785</v>
       </c>
       <c r="O152" t="n">
         <v>3.149926988198058</v>
@@ -5153,25 +5153,25 @@
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.06394106024747613</v>
+        <v>0.06941214106881895</v>
       </c>
       <c r="G153" t="n">
         <v>3.186133045533668</v>
       </c>
       <c r="J153" t="n">
-        <v>0.06394106024747613</v>
+        <v>0.06941214106881895</v>
       </c>
       <c r="K153" t="n">
         <v>3.186133045533668</v>
       </c>
       <c r="L153" t="n">
-        <v>0.1148458494572551</v>
+        <v>0.1095198109196124</v>
       </c>
       <c r="M153" t="n">
         <v>3.186133045533668</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1290442456021555</v>
+        <v>0.1320991294813281</v>
       </c>
       <c r="O153" t="n">
         <v>3.186133045533668</v>
@@ -5179,25 +5179,25 @@
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.06464833313137219</v>
+        <v>0.06945786801703334</v>
       </c>
       <c r="G154" t="n">
         <v>3.222339102869278</v>
       </c>
       <c r="J154" t="n">
-        <v>0.06464833313137219</v>
+        <v>0.06945786801703334</v>
       </c>
       <c r="K154" t="n">
         <v>3.222339102869278</v>
       </c>
       <c r="L154" t="n">
-        <v>0.1106013824928065</v>
+        <v>0.1091603652829931</v>
       </c>
       <c r="M154" t="n">
         <v>3.222339102869278</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1296022220414736</v>
+        <v>0.1317977289969398</v>
       </c>
       <c r="O154" t="n">
         <v>3.222339102869278</v>
@@ -5205,25 +5205,25 @@
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.06183237651312164</v>
+        <v>0.06993183001325257</v>
       </c>
       <c r="G155" t="n">
         <v>3.258545160204888</v>
       </c>
       <c r="J155" t="n">
-        <v>0.06183237651312164</v>
+        <v>0.06993183001325257</v>
       </c>
       <c r="K155" t="n">
         <v>3.258545160204888</v>
       </c>
       <c r="L155" t="n">
-        <v>0.1144848124249195</v>
+        <v>0.1124679898960307</v>
       </c>
       <c r="M155" t="n">
         <v>3.258545160204888</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1337507447310454</v>
+        <v>0.1280262755469565</v>
       </c>
       <c r="O155" t="n">
         <v>3.258545160204888</v>
@@ -5231,25 +5231,25 @@
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.06210766628894517</v>
+        <v>0.07222150817689775</v>
       </c>
       <c r="G156" t="n">
         <v>3.294751217540498</v>
       </c>
       <c r="J156" t="n">
-        <v>0.06210766628894517</v>
+        <v>0.07222150817689775</v>
       </c>
       <c r="K156" t="n">
         <v>3.294751217540498</v>
       </c>
       <c r="L156" t="n">
-        <v>0.1117059964560674</v>
+        <v>0.1151188010842589</v>
       </c>
       <c r="M156" t="n">
         <v>3.294751217540498</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1339992669614668</v>
+        <v>0.1272673686158655</v>
       </c>
       <c r="O156" t="n">
         <v>3.294751217540498</v>
@@ -5257,25 +5257,25 @@
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.0613010649414554</v>
+        <v>0.07069444596451729</v>
       </c>
       <c r="G157" t="n">
         <v>3.330957274876108</v>
       </c>
       <c r="J157" t="n">
-        <v>0.0613010649414554</v>
+        <v>0.07069444596451729</v>
       </c>
       <c r="K157" t="n">
         <v>3.330957274876108</v>
       </c>
       <c r="L157" t="n">
-        <v>0.1180807331612956</v>
+        <v>0.1125972383996597</v>
       </c>
       <c r="M157" t="n">
         <v>3.330957274876108</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1268101872145633</v>
+        <v>0.1278557218621708</v>
       </c>
       <c r="O157" t="n">
         <v>3.330957274876108</v>
@@ -5283,25 +5283,25 @@
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.06167208820104947</v>
+        <v>0.07148092104508667</v>
       </c>
       <c r="G158" t="n">
         <v>3.367163332211717</v>
       </c>
       <c r="J158" t="n">
-        <v>0.06167208820104947</v>
+        <v>0.07148092104508667</v>
       </c>
       <c r="K158" t="n">
         <v>3.367163332211717</v>
       </c>
       <c r="L158" t="n">
-        <v>0.1135299935402532</v>
+        <v>0.1089746728914844</v>
       </c>
       <c r="M158" t="n">
         <v>3.367163332211717</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1267281388615615</v>
+        <v>0.1292055756181887</v>
       </c>
       <c r="O158" t="n">
         <v>3.367163332211717</v>
@@ -5309,25 +5309,25 @@
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.05942215857584555</v>
+        <v>0.06996294374213508</v>
       </c>
       <c r="G159" t="n">
         <v>3.403369389547327</v>
       </c>
       <c r="J159" t="n">
-        <v>0.05942215857584555</v>
+        <v>0.06996294374213508</v>
       </c>
       <c r="K159" t="n">
         <v>3.403369389547327</v>
       </c>
       <c r="L159" t="n">
-        <v>0.1191201613473364</v>
+        <v>0.1090533197306341</v>
       </c>
       <c r="M159" t="n">
         <v>3.403369389547327</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1343102578999118</v>
+        <v>0.133005455250421</v>
       </c>
       <c r="O159" t="n">
         <v>3.403369389547327</v>
@@ -5335,25 +5335,25 @@
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.05913666862880308</v>
+        <v>0.07020032096731317</v>
       </c>
       <c r="G160" t="n">
         <v>3.439575446882937</v>
       </c>
       <c r="J160" t="n">
-        <v>0.05913666862880308</v>
+        <v>0.07020032096731317</v>
       </c>
       <c r="K160" t="n">
         <v>3.439575446882937</v>
       </c>
       <c r="L160" t="n">
-        <v>0.1169563430259451</v>
+        <v>0.114377874445702</v>
       </c>
       <c r="M160" t="n">
         <v>3.439575446882937</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1292901263475801</v>
+        <v>0.1303374707361246</v>
       </c>
       <c r="O160" t="n">
         <v>3.439575446882937</v>
@@ -5361,25 +5361,25 @@
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.06409159435075329</v>
+        <v>0.07025174934525703</v>
       </c>
       <c r="G161" t="n">
         <v>3.475781504218547</v>
       </c>
       <c r="J161" t="n">
-        <v>0.06409159435075329</v>
+        <v>0.07025174934525703</v>
       </c>
       <c r="K161" t="n">
         <v>3.475781504218547</v>
       </c>
       <c r="L161" t="n">
-        <v>0.1159750828450678</v>
+        <v>0.10751915547558</v>
       </c>
       <c r="M161" t="n">
         <v>3.475781504218547</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1308709610965244</v>
+        <v>0.1265835457606633</v>
       </c>
       <c r="O161" t="n">
         <v>3.475781504218547</v>
@@ -5387,25 +5387,25 @@
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.0631218073317768</v>
+        <v>0.07340781894214769</v>
       </c>
       <c r="G162" t="n">
         <v>3.511987561554157</v>
       </c>
       <c r="J162" t="n">
-        <v>0.0631218073317768</v>
+        <v>0.07340781894214769</v>
       </c>
       <c r="K162" t="n">
         <v>3.511987561554157</v>
       </c>
       <c r="L162" t="n">
-        <v>0.1128091686331976</v>
+        <v>0.1124946152465559</v>
       </c>
       <c r="M162" t="n">
         <v>3.511987561554157</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1280373063458827</v>
+        <v>0.1291288786303381</v>
       </c>
       <c r="O162" t="n">
         <v>3.511987561554157</v>
@@ -5413,25 +5413,25 @@
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.06046511529081227</v>
+        <v>0.07178837769175987</v>
       </c>
       <c r="G163" t="n">
         <v>3.548193618889767</v>
       </c>
       <c r="J163" t="n">
-        <v>0.06046511529081227</v>
+        <v>0.07178837769175987</v>
       </c>
       <c r="K163" t="n">
         <v>3.548193618889767</v>
       </c>
       <c r="L163" t="n">
-        <v>0.1121251449618794</v>
+        <v>0.1104545831952379</v>
       </c>
       <c r="M163" t="n">
         <v>3.548193618889767</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1367644067558126</v>
+        <v>0.133769570519503</v>
       </c>
       <c r="O163" t="n">
         <v>3.548193618889767</v>
@@ -5439,25 +5439,25 @@
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.06343570332128565</v>
+        <v>0.068772247689382</v>
       </c>
       <c r="G164" t="n">
         <v>3.584399676225377</v>
       </c>
       <c r="J164" t="n">
-        <v>0.06343570332128565</v>
+        <v>0.068772247689382</v>
       </c>
       <c r="K164" t="n">
         <v>3.584399676225377</v>
       </c>
       <c r="L164" t="n">
-        <v>0.1125020234309311</v>
+        <v>0.111330164763217</v>
       </c>
       <c r="M164" t="n">
         <v>3.584399676225377</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1350206145810177</v>
+        <v>0.129120022133807</v>
       </c>
       <c r="O164" t="n">
         <v>3.584399676225377</v>
@@ -5465,25 +5465,25 @@
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.06415245651022727</v>
+        <v>0.06895940287438258</v>
       </c>
       <c r="G165" t="n">
         <v>3.620605733560986</v>
       </c>
       <c r="J165" t="n">
-        <v>0.06415245651022727</v>
+        <v>0.06895940287438258</v>
       </c>
       <c r="K165" t="n">
         <v>3.620605733560986</v>
       </c>
       <c r="L165" t="n">
-        <v>0.1170037314045151</v>
+        <v>0.1127483932279326</v>
       </c>
       <c r="M165" t="n">
         <v>3.620605733560986</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1331200314671467</v>
+        <v>0.1311648522066902</v>
       </c>
       <c r="O165" t="n">
         <v>3.620605733560986</v>
@@ -5491,25 +5491,25 @@
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.06219979041518958</v>
+        <v>0.0709410094878504</v>
       </c>
       <c r="G166" t="n">
         <v>3.656811790896596</v>
       </c>
       <c r="J166" t="n">
-        <v>0.06219979041518958</v>
+        <v>0.0709410094878504</v>
       </c>
       <c r="K166" t="n">
         <v>3.656811790896596</v>
       </c>
       <c r="L166" t="n">
-        <v>0.1132804911536315</v>
+        <v>0.1118220126170902</v>
       </c>
       <c r="M166" t="n">
         <v>3.656811790896596</v>
       </c>
       <c r="N166" t="n">
-        <v>0.137082148461124</v>
+        <v>0.1246000208756816</v>
       </c>
       <c r="O166" t="n">
         <v>3.656811790896596</v>
@@ -5517,25 +5517,25 @@
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.05957358562554759</v>
+        <v>0.07028122681632276</v>
       </c>
       <c r="G167" t="n">
         <v>3.693017848232206</v>
       </c>
       <c r="J167" t="n">
-        <v>0.05957358562554759</v>
+        <v>0.07028122681632276</v>
       </c>
       <c r="K167" t="n">
         <v>3.693017848232206</v>
       </c>
       <c r="L167" t="n">
-        <v>0.11204641552004</v>
+        <v>0.1121884180905344</v>
       </c>
       <c r="M167" t="n">
         <v>3.693017848232206</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1263321871991424</v>
+        <v>0.1319551820837377</v>
       </c>
       <c r="O167" t="n">
         <v>3.693017848232206</v>
@@ -5543,25 +5543,25 @@
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.06367857335338947</v>
+        <v>0.07219037950501583</v>
       </c>
       <c r="G168" t="n">
         <v>3.729223905567816</v>
       </c>
       <c r="J168" t="n">
-        <v>0.06367857335338947</v>
+        <v>0.07219037950501583</v>
       </c>
       <c r="K168" t="n">
         <v>3.729223905567816</v>
       </c>
       <c r="L168" t="n">
-        <v>0.1158469107293264</v>
+        <v>0.108750756557512</v>
       </c>
       <c r="M168" t="n">
         <v>3.729223905567816</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1373239230247277</v>
+        <v>0.1253108543408437</v>
       </c>
       <c r="O168" t="n">
         <v>3.729223905567816</v>
@@ -5569,25 +5569,25 @@
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.06082017103269489</v>
+        <v>0.07375013791212173</v>
       </c>
       <c r="G169" t="n">
         <v>3.765429962903426</v>
       </c>
       <c r="J169" t="n">
-        <v>0.06082017103269489</v>
+        <v>0.07375013791212173</v>
       </c>
       <c r="K169" t="n">
         <v>3.765429962903426</v>
       </c>
       <c r="L169" t="n">
-        <v>0.1160926630340792</v>
+        <v>0.1108418048351649</v>
       </c>
       <c r="M169" t="n">
         <v>3.765429962903426</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1329885944905099</v>
+        <v>0.1231184781809194</v>
       </c>
       <c r="O169" t="n">
         <v>3.765429962903426</v>
@@ -5595,25 +5595,25 @@
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.06267508009433155</v>
+        <v>0.07151458055600263</v>
       </c>
       <c r="G170" t="n">
         <v>3.801636020239036</v>
       </c>
       <c r="J170" t="n">
-        <v>0.06267508009433155</v>
+        <v>0.07151458055600263</v>
       </c>
       <c r="K170" t="n">
         <v>3.801636020239036</v>
       </c>
       <c r="L170" t="n">
-        <v>0.113897293694911</v>
+        <v>0.1109890747570428</v>
       </c>
       <c r="M170" t="n">
         <v>3.801636020239036</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1332570878192419</v>
+        <v>0.1268771652712553</v>
       </c>
       <c r="O170" t="n">
         <v>3.801636020239036</v>
@@ -5621,25 +5621,25 @@
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.06387073253647822</v>
+        <v>0.07261067474558368</v>
       </c>
       <c r="G171" t="n">
         <v>3.837842077574646</v>
       </c>
       <c r="J171" t="n">
-        <v>0.06387073253647822</v>
+        <v>0.07261067474558368</v>
       </c>
       <c r="K171" t="n">
         <v>3.837842077574646</v>
       </c>
       <c r="L171" t="n">
-        <v>0.1111939990177352</v>
+        <v>0.1067268137327252</v>
       </c>
       <c r="M171" t="n">
         <v>3.837842077574646</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1284923678956417</v>
+        <v>0.1213900203998683</v>
       </c>
       <c r="O171" t="n">
         <v>3.837842077574646</v>
@@ -5647,25 +5647,25 @@
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.06098717684339064</v>
+        <v>0.0701247968124654</v>
       </c>
       <c r="G172" t="n">
         <v>3.874048134910256</v>
       </c>
       <c r="J172" t="n">
-        <v>0.06098717684339064</v>
+        <v>0.0701247968124654</v>
       </c>
       <c r="K172" t="n">
         <v>3.874048134910256</v>
       </c>
       <c r="L172" t="n">
-        <v>0.112438547032466</v>
+        <v>0.1131935262402076</v>
       </c>
       <c r="M172" t="n">
         <v>3.874048134910256</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1297072175077855</v>
+        <v>0.1295371871664252</v>
       </c>
       <c r="O172" t="n">
         <v>3.874048134910256</v>
@@ -5673,25 +5673,25 @@
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.06107921678711375</v>
+        <v>0.0715306957814959</v>
       </c>
       <c r="G173" t="n">
         <v>3.910254192245866</v>
       </c>
       <c r="J173" t="n">
-        <v>0.06107921678711375</v>
+        <v>0.0715306957814959</v>
       </c>
       <c r="K173" t="n">
         <v>3.910254192245866</v>
       </c>
       <c r="L173" t="n">
-        <v>0.1114986595110407</v>
+        <v>0.1121569255853341</v>
       </c>
       <c r="M173" t="n">
         <v>3.910254192245866</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1298117427429859</v>
+        <v>0.1221775760049987</v>
       </c>
       <c r="O173" t="n">
         <v>3.910254192245866</v>
@@ -5699,25 +5699,25 @@
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.06006371333072548</v>
+        <v>0.07165913687819606</v>
       </c>
       <c r="G174" t="n">
         <v>3.946460249581476</v>
       </c>
       <c r="J174" t="n">
-        <v>0.06006371333072548</v>
+        <v>0.07165913687819606</v>
       </c>
       <c r="K174" t="n">
         <v>3.946460249581476</v>
       </c>
       <c r="L174" t="n">
-        <v>0.1063119652134462</v>
+        <v>0.1133057111213964</v>
       </c>
       <c r="M174" t="n">
         <v>3.946460249581476</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1264024807956464</v>
+        <v>0.1266198258867607</v>
       </c>
       <c r="O174" t="n">
         <v>3.946460249581476</v>
@@ -5725,25 +5725,25 @@
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.0637944432061837</v>
+        <v>0.07041599577258618</v>
       </c>
       <c r="G175" t="n">
         <v>3.982666306917085</v>
       </c>
       <c r="J175" t="n">
-        <v>0.0637944432061837</v>
+        <v>0.07041599577258618</v>
       </c>
       <c r="K175" t="n">
         <v>3.982666306917085</v>
       </c>
       <c r="L175" t="n">
-        <v>0.1097846632138584</v>
+        <v>0.1083540188482218</v>
       </c>
       <c r="M175" t="n">
         <v>3.982666306917085</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1248510779323078</v>
+        <v>0.119910400772297</v>
       </c>
       <c r="O175" t="n">
         <v>3.982666306917085</v>
@@ -5751,25 +5751,25 @@
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.06072462592377758</v>
+        <v>0.07339591519266141</v>
       </c>
       <c r="G176" t="n">
         <v>4.018872364252696</v>
       </c>
       <c r="J176" t="n">
-        <v>0.06072462592377758</v>
+        <v>0.07339591519266141</v>
       </c>
       <c r="K176" t="n">
         <v>4.018872364252696</v>
       </c>
       <c r="L176" t="n">
-        <v>0.1110972735962371</v>
+        <v>0.1068157591586381</v>
       </c>
       <c r="M176" t="n">
         <v>4.018872364252696</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1335445117894031</v>
+        <v>0.1227687732825644</v>
       </c>
       <c r="O176" t="n">
         <v>4.018872364252696</v>
@@ -5777,25 +5777,25 @@
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.06111335085784224</v>
+        <v>0.0697731265752725</v>
       </c>
       <c r="G177" t="n">
         <v>4.055078421588305</v>
       </c>
       <c r="J177" t="n">
-        <v>0.06111335085784224</v>
+        <v>0.0697731265752725</v>
       </c>
       <c r="K177" t="n">
         <v>4.055078421588305</v>
       </c>
       <c r="L177" t="n">
-        <v>0.1062281636316494</v>
+        <v>0.1093567848516565</v>
       </c>
       <c r="M177" t="n">
         <v>4.055078421588305</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1330003054390797</v>
+        <v>0.1210174252356621</v>
       </c>
       <c r="O177" t="n">
         <v>4.055078421588305</v>
@@ -5803,25 +5803,25 @@
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.06500376574792764</v>
+        <v>0.06915795325587229</v>
       </c>
       <c r="G178" t="n">
         <v>4.091284478923915</v>
       </c>
       <c r="J178" t="n">
-        <v>0.06500376574792764</v>
+        <v>0.06915795325587229</v>
       </c>
       <c r="K178" t="n">
         <v>4.091284478923915</v>
       </c>
       <c r="L178" t="n">
-        <v>0.1070604083193785</v>
+        <v>0.1117883198599097</v>
       </c>
       <c r="M178" t="n">
         <v>4.091284478923915</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1262666665252227</v>
+        <v>0.1172275589329115</v>
       </c>
       <c r="O178" t="n">
         <v>4.091284478923915</v>
@@ -5829,25 +5829,25 @@
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.06119152262567834</v>
+        <v>0.07282738498487282</v>
       </c>
       <c r="G179" t="n">
         <v>4.127490536259525</v>
       </c>
       <c r="J179" t="n">
-        <v>0.06119152262567834</v>
+        <v>0.07282738498487282</v>
       </c>
       <c r="K179" t="n">
         <v>4.127490536259525</v>
       </c>
       <c r="L179" t="n">
-        <v>0.1034667940864347</v>
+        <v>0.105891368362492</v>
       </c>
       <c r="M179" t="n">
         <v>4.127490536259525</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1324522396691754</v>
+        <v>0.1137421478539923</v>
       </c>
       <c r="O179" t="n">
         <v>4.127490536259525</v>
@@ -5855,25 +5855,25 @@
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.06258361573146469</v>
+        <v>0.06939729602600407</v>
       </c>
       <c r="G180" t="n">
         <v>4.163696593595135</v>
       </c>
       <c r="J180" t="n">
-        <v>0.06258361573146469</v>
+        <v>0.06939729602600407</v>
       </c>
       <c r="K180" t="n">
         <v>4.163696593595135</v>
       </c>
       <c r="L180" t="n">
-        <v>0.1053779032044717</v>
+        <v>0.1077780080957359</v>
       </c>
       <c r="M180" t="n">
         <v>4.163696593595135</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1282611877084224</v>
+        <v>0.1146745571854959</v>
       </c>
       <c r="O180" t="n">
         <v>4.163696593595135</v>
@@ -5881,25 +5881,25 @@
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.06284217187216359</v>
+        <v>0.07219200846047374</v>
       </c>
       <c r="G181" t="n">
         <v>4.199902650930745</v>
       </c>
       <c r="J181" t="n">
-        <v>0.06284217187216359</v>
+        <v>0.07219200846047374</v>
       </c>
       <c r="K181" t="n">
         <v>4.199902650930745</v>
       </c>
       <c r="L181" t="n">
-        <v>0.103036015021336</v>
+        <v>0.1065385681829058</v>
       </c>
       <c r="M181" t="n">
         <v>4.199902650930745</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1321480996970827</v>
+        <v>0.1167362653869964</v>
       </c>
       <c r="O181" t="n">
         <v>4.199902650930745</v>
@@ -5907,25 +5907,25 @@
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.06466183507887827</v>
+        <v>0.06854037528180069</v>
       </c>
       <c r="G182" t="n">
         <v>4.236108708266355</v>
       </c>
       <c r="J182" t="n">
-        <v>0.06466183507887827</v>
+        <v>0.06854037528180069</v>
       </c>
       <c r="K182" t="n">
         <v>4.236108708266355</v>
       </c>
       <c r="L182" t="n">
-        <v>0.105687571371993</v>
+        <v>0.109277185664465</v>
       </c>
       <c r="M182" t="n">
         <v>4.236108708266355</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1307500995082761</v>
+        <v>0.1159809515266689</v>
       </c>
       <c r="O182" t="n">
         <v>4.236108708266355</v>
@@ -5933,25 +5933,25 @@
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.06525576095237791</v>
+        <v>0.07019533596978081</v>
       </c>
       <c r="G183" t="n">
         <v>4.272314765601964</v>
       </c>
       <c r="J183" t="n">
-        <v>0.06525576095237791</v>
+        <v>0.07019533596978081</v>
       </c>
       <c r="K183" t="n">
         <v>4.272314765601964</v>
       </c>
       <c r="L183" t="n">
-        <v>0.1015057346893721</v>
+        <v>0.1117869822961123</v>
       </c>
       <c r="M183" t="n">
         <v>4.272314765601964</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1252659452299245</v>
+        <v>0.118151957809649</v>
       </c>
       <c r="O183" t="n">
         <v>4.272314765601964</v>
@@ -5959,25 +5959,25 @@
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.06465236545560819</v>
+        <v>0.0721723130296348</v>
       </c>
       <c r="G184" t="n">
         <v>4.308520822937574</v>
       </c>
       <c r="J184" t="n">
-        <v>0.06465236545560819</v>
+        <v>0.0721723130296348</v>
       </c>
       <c r="K184" t="n">
         <v>4.308520822937574</v>
       </c>
       <c r="L184" t="n">
-        <v>0.1049925924783551</v>
+        <v>0.1095384513249788</v>
       </c>
       <c r="M184" t="n">
         <v>4.308520822937574</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1254528419910522</v>
+        <v>0.1096166737774904</v>
       </c>
       <c r="O184" t="n">
         <v>4.308520822937574</v>
@@ -5985,25 +5985,25 @@
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.06284981803173061</v>
+        <v>0.06911544536964856</v>
       </c>
       <c r="G185" t="n">
         <v>4.344726880273184</v>
       </c>
       <c r="J185" t="n">
-        <v>0.06284981803173061</v>
+        <v>0.06911544536964856</v>
       </c>
       <c r="K185" t="n">
         <v>4.344726880273184</v>
       </c>
       <c r="L185" t="n">
-        <v>0.1065795724879828</v>
+        <v>0.1067631448803632</v>
       </c>
       <c r="M185" t="n">
         <v>4.344726880273184</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1326733425625424</v>
+        <v>0.1143541998180089</v>
       </c>
       <c r="O185" t="n">
         <v>4.344726880273184</v>
@@ -6011,25 +6011,25 @@
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.06567697253027711</v>
+        <v>0.07394538367463195</v>
       </c>
       <c r="G186" t="n">
         <v>4.380932937608794</v>
       </c>
       <c r="J186" t="n">
-        <v>0.06567697253027711</v>
+        <v>0.07394538367463195</v>
       </c>
       <c r="K186" t="n">
         <v>4.380932937608794</v>
       </c>
       <c r="L186" t="n">
-        <v>0.1068693834582095</v>
+        <v>0.1103292580981212</v>
       </c>
       <c r="M186" t="n">
         <v>4.380932937608794</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1329948569672986</v>
+        <v>0.1147053659849232</v>
       </c>
       <c r="O186" t="n">
         <v>4.380932937608794</v>
@@ -6037,25 +6037,25 @@
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.06158107888634521</v>
+        <v>0.07292801575633512</v>
       </c>
       <c r="G187" t="n">
         <v>4.417138994944404</v>
       </c>
       <c r="J187" t="n">
-        <v>0.06158107888634521</v>
+        <v>0.07292801575633512</v>
       </c>
       <c r="K187" t="n">
         <v>4.417138994944404</v>
       </c>
       <c r="L187" t="n">
-        <v>0.1031899465320298</v>
+        <v>0.1044281804189639</v>
       </c>
       <c r="M187" t="n">
         <v>4.417138994944404</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1274997428980179</v>
+        <v>0.1125951715813919</v>
       </c>
       <c r="O187" t="n">
         <v>4.417138994944404</v>
@@ -6063,25 +6063,25 @@
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.06523317884555879</v>
+        <v>0.06839361355817335</v>
       </c>
       <c r="G188" t="n">
         <v>4.453345052280014</v>
       </c>
       <c r="J188" t="n">
-        <v>0.06523317884555879</v>
+        <v>0.06839361355817335</v>
       </c>
       <c r="K188" t="n">
         <v>4.453345052280014</v>
       </c>
       <c r="L188" t="n">
-        <v>0.1072252921853112</v>
+        <v>0.1103232010737479</v>
       </c>
       <c r="M188" t="n">
         <v>4.453345052280014</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1257672756647472</v>
+        <v>0.1111252235926399</v>
       </c>
       <c r="O188" t="n">
         <v>4.453345052280014</v>
@@ -6089,25 +6089,25 @@
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.06541580747927879</v>
+        <v>0.07198670744045529</v>
       </c>
       <c r="G189" t="n">
         <v>4.489551109615624</v>
       </c>
       <c r="J189" t="n">
-        <v>0.06541580747927879</v>
+        <v>0.07198670744045529</v>
       </c>
       <c r="K189" t="n">
         <v>4.489551109615624</v>
       </c>
       <c r="L189" t="n">
-        <v>0.09901301875687293</v>
+        <v>0.1033412780728599</v>
       </c>
       <c r="M189" t="n">
         <v>4.489551109615624</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1215682296937056</v>
+        <v>0.1083454937159418</v>
       </c>
       <c r="O189" t="n">
         <v>4.489551109615624</v>
@@ -6115,25 +6115,25 @@
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.06305866237656604</v>
+        <v>0.06971031108062244</v>
       </c>
       <c r="G190" t="n">
         <v>4.525757166951233</v>
       </c>
       <c r="J190" t="n">
-        <v>0.06305866237656604</v>
+        <v>0.06971031108062244</v>
       </c>
       <c r="K190" t="n">
         <v>4.525757166951233</v>
       </c>
       <c r="L190" t="n">
-        <v>0.1031810865796993</v>
+        <v>0.1061684943912463</v>
       </c>
       <c r="M190" t="n">
         <v>4.525757166951233</v>
       </c>
       <c r="N190" t="n">
-        <v>0.122778211670424</v>
+        <v>0.1104304875034344</v>
       </c>
       <c r="O190" t="n">
         <v>4.525757166951233</v>
@@ -6141,25 +6141,25 @@
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.06246547248049378</v>
+        <v>0.07171820296640806</v>
       </c>
       <c r="G191" t="n">
         <v>4.561963224286843</v>
       </c>
       <c r="J191" t="n">
-        <v>0.06246547248049378</v>
+        <v>0.07171820296640806</v>
       </c>
       <c r="K191" t="n">
         <v>4.561963224286843</v>
       </c>
       <c r="L191" t="n">
-        <v>0.1040835987968916</v>
+        <v>0.107159655063329</v>
       </c>
       <c r="M191" t="n">
         <v>4.561963224286843</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1191395974380212</v>
+        <v>0.1028751355363297</v>
       </c>
       <c r="O191" t="n">
         <v>4.561963224286843</v>
@@ -6167,25 +6167,25 @@
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.06340165735743547</v>
+        <v>0.06950095039044657</v>
       </c>
       <c r="G192" t="n">
         <v>4.598169281622453</v>
       </c>
       <c r="J192" t="n">
-        <v>0.06340165735743547</v>
+        <v>0.06950095039044657</v>
       </c>
       <c r="K192" t="n">
         <v>4.598169281622453</v>
       </c>
       <c r="L192" t="n">
-        <v>0.1032533143597775</v>
+        <v>0.1103145856564203</v>
       </c>
       <c r="M192" t="n">
         <v>4.598169281622453</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1194063123191295</v>
+        <v>0.1108706729378884</v>
       </c>
       <c r="O192" t="n">
         <v>4.598169281622453</v>
@@ -6193,25 +6193,25 @@
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.06287686011011852</v>
+        <v>0.06660171871544852</v>
       </c>
       <c r="G193" t="n">
         <v>4.634375338958063</v>
       </c>
       <c r="J193" t="n">
-        <v>0.06287686011011852</v>
+        <v>0.06660171871544852</v>
       </c>
       <c r="K193" t="n">
         <v>4.634375338958063</v>
       </c>
       <c r="L193" t="n">
-        <v>0.1012721255180398</v>
+        <v>0.1089506309886506</v>
       </c>
       <c r="M193" t="n">
         <v>4.634375338958063</v>
       </c>
       <c r="N193" t="n">
-        <v>0.116225451276086</v>
+        <v>0.1021154596001385</v>
       </c>
       <c r="O193" t="n">
         <v>4.634375338958063</v>
@@ -6219,25 +6219,25 @@
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.05923853114771192</v>
+        <v>0.07034326476985185</v>
       </c>
       <c r="G194" t="n">
         <v>4.670581396293673</v>
       </c>
       <c r="J194" t="n">
-        <v>0.05923853114771192</v>
+        <v>0.07034326476985185</v>
       </c>
       <c r="K194" t="n">
         <v>4.670581396293673</v>
       </c>
       <c r="L194" t="n">
-        <v>0.09945250799586036</v>
+        <v>0.1082214839542924</v>
       </c>
       <c r="M194" t="n">
         <v>4.670581396293673</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1198192629656892</v>
+        <v>0.1030975608383666</v>
       </c>
       <c r="O194" t="n">
         <v>4.670581396293673</v>
@@ -6245,25 +6245,25 @@
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.06191551123121414</v>
+        <v>0.06465425275817818</v>
       </c>
       <c r="G195" t="n">
         <v>4.706787453629283</v>
       </c>
       <c r="J195" t="n">
-        <v>0.06191551123121414</v>
+        <v>0.06465425275817818</v>
       </c>
       <c r="K195" t="n">
         <v>4.706787453629283</v>
       </c>
       <c r="L195" t="n">
-        <v>0.09795165443439621</v>
+        <v>0.1012900473935382</v>
       </c>
       <c r="M195" t="n">
         <v>4.706787453629283</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1107988078186227</v>
+        <v>0.1033139030123716</v>
       </c>
       <c r="O195" t="n">
         <v>4.706787453629283</v>
@@ -6271,25 +6271,25 @@
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.058517443918651</v>
+        <v>0.06513332779374002</v>
       </c>
       <c r="G196" t="n">
         <v>4.742993510964893</v>
       </c>
       <c r="J196" t="n">
-        <v>0.058517443918651</v>
+        <v>0.06513332779374002</v>
       </c>
       <c r="K196" t="n">
         <v>4.742993510964893</v>
       </c>
       <c r="L196" t="n">
-        <v>0.09833024614474996</v>
+        <v>0.1018912844538044</v>
       </c>
       <c r="M196" t="n">
         <v>4.742993510964893</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1100733152086675</v>
+        <v>0.1039542001238574</v>
       </c>
       <c r="O196" t="n">
         <v>4.742993510964893</v>
@@ -6297,25 +6297,25 @@
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.06039844378406223</v>
+        <v>0.06420643353373541</v>
       </c>
       <c r="G197" t="n">
         <v>4.779199568300502</v>
       </c>
       <c r="J197" t="n">
-        <v>0.06039844378406223</v>
+        <v>0.06420643353373541</v>
       </c>
       <c r="K197" t="n">
         <v>4.779199568300502</v>
       </c>
       <c r="L197" t="n">
-        <v>0.09820235715801162</v>
+        <v>0.1045333105444818</v>
       </c>
       <c r="M197" t="n">
         <v>4.779199568300502</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1123759115555053</v>
+        <v>0.1061627854706734</v>
       </c>
       <c r="O197" t="n">
         <v>4.779199568300502</v>
@@ -6323,25 +6323,25 @@
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.0568353401785725</v>
+        <v>0.06535927222340057</v>
       </c>
       <c r="G198" t="n">
         <v>4.815405625636112</v>
       </c>
       <c r="J198" t="n">
-        <v>0.0568353401785725</v>
+        <v>0.06535927222340057</v>
       </c>
       <c r="K198" t="n">
         <v>4.815405625636112</v>
       </c>
       <c r="L198" t="n">
-        <v>0.09696305041756574</v>
+        <v>0.1049401546027892</v>
       </c>
       <c r="M198" t="n">
         <v>4.815405625636112</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1099648512689514</v>
+        <v>0.1038581444764363</v>
       </c>
       <c r="O198" t="n">
         <v>4.815405625636112</v>
@@ -6349,25 +6349,25 @@
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.0575597176403309</v>
+        <v>0.06264669978307319</v>
       </c>
       <c r="G199" t="n">
         <v>4.851611682971722</v>
       </c>
       <c r="J199" t="n">
-        <v>0.0575597176403309</v>
+        <v>0.06264669978307319</v>
       </c>
       <c r="K199" t="n">
         <v>4.851611682971722</v>
       </c>
       <c r="L199" t="n">
-        <v>0.09312469808221069</v>
+        <v>0.1038462545380038</v>
       </c>
       <c r="M199" t="n">
         <v>4.851611682971722</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1022515060414203</v>
+        <v>0.09860504154988536</v>
       </c>
       <c r="O199" t="n">
         <v>4.851611682971722</v>
@@ -6375,25 +6375,25 @@
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.05686221549716486</v>
+        <v>0.06202752029499271</v>
       </c>
       <c r="G200" t="n">
         <v>4.887817740307332</v>
       </c>
       <c r="J200" t="n">
-        <v>0.05686221549716486</v>
+        <v>0.06202752029499271</v>
       </c>
       <c r="K200" t="n">
         <v>4.887817740307332</v>
       </c>
       <c r="L200" t="n">
-        <v>0.09204082017853618</v>
+        <v>0.1014879239059567</v>
       </c>
       <c r="M200" t="n">
         <v>4.887817740307332</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1067641603978017</v>
+        <v>0.1016213044601549</v>
       </c>
       <c r="O200" t="n">
         <v>4.887817740307332</v>
@@ -6401,25 +6401,25 @@
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.05558176270152483</v>
+        <v>0.06163972734709053</v>
       </c>
       <c r="G201" t="n">
         <v>4.924023797642942</v>
       </c>
       <c r="J201" t="n">
-        <v>0.05558176270152483</v>
+        <v>0.06163972734709053</v>
       </c>
       <c r="K201" t="n">
         <v>4.924023797642942</v>
       </c>
       <c r="L201" t="n">
-        <v>0.09086144948169916</v>
+        <v>0.1013619478611342</v>
       </c>
       <c r="M201" t="n">
         <v>4.924023797642942</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1038742334918536</v>
+        <v>0.0967322442107947</v>
       </c>
       <c r="O201" t="n">
         <v>4.924023797642942</v>
@@ -6427,25 +6427,25 @@
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.05807778610115289</v>
+        <v>0.06348298967168851</v>
       </c>
       <c r="G202" t="n">
         <v>4.960229854978552</v>
       </c>
       <c r="J202" t="n">
-        <v>0.05807778610115289</v>
+        <v>0.06348298967168851</v>
       </c>
       <c r="K202" t="n">
         <v>4.960229854978552</v>
       </c>
       <c r="L202" t="n">
-        <v>0.09705297130162586</v>
+        <v>0.09518834228342678</v>
       </c>
       <c r="M202" t="n">
         <v>4.960229854978552</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1021769861958123</v>
+        <v>0.09528555579242297</v>
       </c>
       <c r="O202" t="n">
         <v>4.960229854978552</v>
@@ -6453,25 +6453,25 @@
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.05731472195514024</v>
+        <v>0.06034305176694022</v>
       </c>
       <c r="G203" t="n">
         <v>4.996435912314162</v>
       </c>
       <c r="J203" t="n">
-        <v>0.05731472195514024</v>
+        <v>0.06034305176694022</v>
       </c>
       <c r="K203" t="n">
         <v>4.996435912314162</v>
       </c>
       <c r="L203" t="n">
-        <v>0.09643429094849391</v>
+        <v>0.09640848734097825</v>
       </c>
       <c r="M203" t="n">
         <v>4.996435912314162</v>
       </c>
       <c r="N203" t="n">
-        <v>0.100303513474174</v>
+        <v>0.09747571602241414</v>
       </c>
       <c r="O203" t="n">
         <v>4.996435912314162</v>
@@ -6479,25 +6479,25 @@
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.0557459328656363</v>
+        <v>0.06348680017121654</v>
       </c>
       <c r="G204" t="n">
         <v>5.032641969649771</v>
       </c>
       <c r="J204" t="n">
-        <v>0.0557459328656363</v>
+        <v>0.06348680017121654</v>
       </c>
       <c r="K204" t="n">
         <v>5.032641969649771</v>
       </c>
       <c r="L204" t="n">
-        <v>0.09385550315216327</v>
+        <v>0.09805670694767463</v>
       </c>
       <c r="M204" t="n">
         <v>5.032641969649771</v>
       </c>
       <c r="N204" t="n">
-        <v>0.09369551749445547</v>
+        <v>0.09285250467558466</v>
       </c>
       <c r="O204" t="n">
         <v>5.032641969649771</v>
@@ -6505,25 +6505,25 @@
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.05350396081365786</v>
+        <v>0.06183046117630508</v>
       </c>
       <c r="G205" t="n">
         <v>5.068848026985381</v>
       </c>
       <c r="J205" t="n">
-        <v>0.05350396081365786</v>
+        <v>0.06183046117630508</v>
       </c>
       <c r="K205" t="n">
         <v>5.068848026985381</v>
       </c>
       <c r="L205" t="n">
-        <v>0.09153536879697478</v>
+        <v>0.09711837482675494</v>
       </c>
       <c r="M205" t="n">
         <v>5.068848026985381</v>
       </c>
       <c r="N205" t="n">
-        <v>0.09217113764244569</v>
+        <v>0.09672470949370594</v>
       </c>
       <c r="O205" t="n">
         <v>5.068848026985381</v>
@@ -6531,25 +6531,25 @@
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.0545480492586714</v>
+        <v>0.05911174778318357</v>
       </c>
       <c r="G206" t="n">
         <v>5.105054084320991</v>
       </c>
       <c r="J206" t="n">
-        <v>0.0545480492586714</v>
+        <v>0.05911174778318357</v>
       </c>
       <c r="K206" t="n">
         <v>5.105054084320991</v>
       </c>
       <c r="L206" t="n">
-        <v>0.09163155713526061</v>
+        <v>0.09698512895101502</v>
       </c>
       <c r="M206" t="n">
         <v>5.105054084320991</v>
       </c>
       <c r="N206" t="n">
-        <v>0.09118712655028176</v>
+        <v>0.09115082668302428</v>
       </c>
       <c r="O206" t="n">
         <v>5.105054084320991</v>
@@ -6557,25 +6557,25 @@
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.05276067872848195</v>
+        <v>0.0578923911413057</v>
       </c>
       <c r="G207" t="n">
         <v>5.141260141656601</v>
       </c>
       <c r="J207" t="n">
-        <v>0.05276067872848195</v>
+        <v>0.0578923911413057</v>
       </c>
       <c r="K207" t="n">
         <v>5.141260141656601</v>
       </c>
       <c r="L207" t="n">
-        <v>0.08747807242357573</v>
+        <v>0.09552466655079547</v>
       </c>
       <c r="M207" t="n">
         <v>5.141260141656601</v>
       </c>
       <c r="N207" t="n">
-        <v>0.09328848345873041</v>
+        <v>0.09415963503240679</v>
       </c>
       <c r="O207" t="n">
         <v>5.141260141656601</v>
@@ -6583,25 +6583,25 @@
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.05284494071064732</v>
+        <v>0.0599554322918834</v>
       </c>
       <c r="G208" t="n">
         <v>5.177466198992211</v>
       </c>
       <c r="J208" t="n">
-        <v>0.05284494071064732</v>
+        <v>0.0599554322918834</v>
       </c>
       <c r="K208" t="n">
         <v>5.177466198992211</v>
       </c>
       <c r="L208" t="n">
-        <v>0.09355553824221245</v>
+        <v>0.09593986348777392</v>
       </c>
       <c r="M208" t="n">
         <v>5.177466198992211</v>
       </c>
       <c r="N208" t="n">
-        <v>0.09546088028630194</v>
+        <v>0.09255763711994762</v>
       </c>
       <c r="O208" t="n">
         <v>5.177466198992211</v>
@@ -6609,25 +6609,25 @@
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.05178852205596004</v>
+        <v>0.05719736334650578</v>
       </c>
       <c r="G209" t="n">
         <v>5.213672256327821</v>
       </c>
       <c r="J209" t="n">
-        <v>0.05178852205596004</v>
+        <v>0.05719736334650578</v>
       </c>
       <c r="K209" t="n">
         <v>5.213672256327821</v>
       </c>
       <c r="L209" t="n">
-        <v>0.09021801230466918</v>
+        <v>0.0964788544879793</v>
       </c>
       <c r="M209" t="n">
         <v>5.213672256327821</v>
       </c>
       <c r="N209" t="n">
-        <v>0.09256527937401372</v>
+        <v>0.08922410546683295</v>
       </c>
       <c r="O209" t="n">
         <v>5.213672256327821</v>
@@ -6635,25 +6635,25 @@
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.05284497863253747</v>
+        <v>0.06082169132495011</v>
       </c>
       <c r="G210" t="n">
         <v>5.24987831366343</v>
       </c>
       <c r="J210" t="n">
-        <v>0.05284497863253747</v>
+        <v>0.06082169132495011</v>
       </c>
       <c r="K210" t="n">
         <v>5.24987831366343</v>
       </c>
       <c r="L210" t="n">
-        <v>0.08838632325354287</v>
+        <v>0.08994592829994894</v>
       </c>
       <c r="M210" t="n">
         <v>5.24987831366343</v>
       </c>
       <c r="N210" t="n">
-        <v>0.09152362708849744</v>
+        <v>0.08995241476091898</v>
       </c>
       <c r="O210" t="n">
         <v>5.24987831366343</v>
@@ -6661,25 +6661,25 @@
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.05112268244376923</v>
+        <v>0.06046457121489114</v>
       </c>
       <c r="G211" t="n">
         <v>5.28608437099904</v>
       </c>
       <c r="J211" t="n">
-        <v>0.05112268244376923</v>
+        <v>0.06046457121489114</v>
       </c>
       <c r="K211" t="n">
         <v>5.28608437099904</v>
       </c>
       <c r="L211" t="n">
-        <v>0.09122978670457435</v>
+        <v>0.08973757724874559</v>
       </c>
       <c r="M211" t="n">
         <v>5.28608437099904</v>
       </c>
       <c r="N211" t="n">
-        <v>0.08928094979312448</v>
+        <v>0.0934519254958813</v>
       </c>
       <c r="O211" t="n">
         <v>5.28608437099904</v>
@@ -6687,25 +6687,25 @@
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.05145611720296371</v>
+        <v>0.05706804394311206</v>
       </c>
       <c r="G212" t="n">
         <v>5.32229042833465</v>
       </c>
       <c r="J212" t="n">
-        <v>0.05145611720296371</v>
+        <v>0.05706804394311206</v>
       </c>
       <c r="K212" t="n">
         <v>5.32229042833465</v>
       </c>
       <c r="L212" t="n">
-        <v>0.08990769895194843</v>
+        <v>0.0900112775774428</v>
       </c>
       <c r="M212" t="n">
         <v>5.32229042833465</v>
       </c>
       <c r="N212" t="n">
-        <v>0.09247298094182156</v>
+        <v>0.08710384134271432</v>
       </c>
       <c r="O212" t="n">
         <v>5.32229042833465</v>
@@ -6713,25 +6713,25 @@
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.05287575338511584</v>
+        <v>0.0590384766236498</v>
       </c>
       <c r="G213" t="n">
         <v>5.35849648567026</v>
       </c>
       <c r="J213" t="n">
-        <v>0.05287575338511584</v>
+        <v>0.0590384766236498</v>
       </c>
       <c r="K213" t="n">
         <v>5.35849648567026</v>
       </c>
       <c r="L213" t="n">
-        <v>0.08726650459013154</v>
+        <v>0.09123008603500486</v>
       </c>
       <c r="M213" t="n">
         <v>5.35849648567026</v>
       </c>
       <c r="N213" t="n">
-        <v>0.09298125674190588</v>
+        <v>0.08601619276945323</v>
       </c>
       <c r="O213" t="n">
         <v>5.35849648567026</v>
@@ -6739,25 +6739,25 @@
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.05243813704585152</v>
+        <v>0.05586172742620687</v>
       </c>
       <c r="G214" t="n">
         <v>5.39470254300587</v>
       </c>
       <c r="J214" t="n">
-        <v>0.05243813704585152</v>
+        <v>0.05586172742620687</v>
       </c>
       <c r="K214" t="n">
         <v>5.39470254300587</v>
       </c>
       <c r="L214" t="n">
-        <v>0.08792913932154493</v>
+        <v>0.09140891054316197</v>
       </c>
       <c r="M214" t="n">
         <v>5.39470254300587</v>
       </c>
       <c r="N214" t="n">
-        <v>0.09460195923877125</v>
+        <v>0.08831955591526314</v>
       </c>
       <c r="O214" t="n">
         <v>5.39470254300587</v>
@@ -6765,25 +6765,25 @@
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.05323845422993718</v>
+        <v>0.05488992790444509</v>
       </c>
       <c r="G215" t="n">
         <v>5.43090860034148</v>
       </c>
       <c r="J215" t="n">
-        <v>0.05323845422993718</v>
+        <v>0.05488992790444509</v>
       </c>
       <c r="K215" t="n">
         <v>5.43090860034148</v>
       </c>
       <c r="L215" t="n">
-        <v>0.08638951306780532</v>
+        <v>0.08978923252525405</v>
       </c>
       <c r="M215" t="n">
         <v>5.43090860034148</v>
       </c>
       <c r="N215" t="n">
-        <v>0.08997299822974177</v>
+        <v>0.09217688999213207</v>
       </c>
       <c r="O215" t="n">
         <v>5.43090860034148</v>
@@ -6791,25 +6791,25 @@
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.04985575377040177</v>
+        <v>0.05615086836623485</v>
       </c>
       <c r="G216" t="n">
         <v>5.46711465767709</v>
       </c>
       <c r="J216" t="n">
-        <v>0.04985575377040177</v>
+        <v>0.05615086836623485</v>
       </c>
       <c r="K216" t="n">
         <v>5.46711465767709</v>
       </c>
       <c r="L216" t="n">
-        <v>0.0841933748968364</v>
+        <v>0.08577415201431211</v>
       </c>
       <c r="M216" t="n">
         <v>5.46711465767709</v>
       </c>
       <c r="N216" t="n">
-        <v>0.09160517638003464</v>
+        <v>0.09153650995002668</v>
       </c>
       <c r="O216" t="n">
         <v>5.46711465767709</v>
@@ -6817,25 +6817,25 @@
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.04941711261796154</v>
+        <v>0.05602432307469892</v>
       </c>
       <c r="G217" t="n">
         <v>5.503320715012699</v>
       </c>
       <c r="J217" t="n">
-        <v>0.04941711261796154</v>
+        <v>0.05602432307469892</v>
       </c>
       <c r="K217" t="n">
         <v>5.503320715012699</v>
       </c>
       <c r="L217" t="n">
-        <v>0.08510235552198681</v>
+        <v>0.08689690943490222</v>
       </c>
       <c r="M217" t="n">
         <v>5.503320715012699</v>
       </c>
       <c r="N217" t="n">
-        <v>0.09120839273344887</v>
+        <v>0.08684377863724488</v>
       </c>
       <c r="O217" t="n">
         <v>5.503320715012699</v>
@@ -6843,25 +6843,25 @@
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.05125853568977186</v>
+        <v>0.05618474951111511</v>
       </c>
       <c r="G218" t="n">
         <v>5.539526772348309</v>
       </c>
       <c r="J218" t="n">
-        <v>0.05125853568977186</v>
+        <v>0.05618474951111511</v>
       </c>
       <c r="K218" t="n">
         <v>5.539526772348309</v>
       </c>
       <c r="L218" t="n">
-        <v>0.08921190788612945</v>
+        <v>0.08470258562067581</v>
       </c>
       <c r="M218" t="n">
         <v>5.539526772348309</v>
       </c>
       <c r="N218" t="n">
-        <v>0.09640081100385045</v>
+        <v>0.08609552920758395</v>
       </c>
       <c r="O218" t="n">
         <v>5.539526772348309</v>
@@ -6869,25 +6869,25 @@
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.05268330439847223</v>
+        <v>0.0577183360407945</v>
       </c>
       <c r="G219" t="n">
         <v>5.575732829683919</v>
       </c>
       <c r="J219" t="n">
-        <v>0.05268330439847223</v>
+        <v>0.0577183360407945</v>
       </c>
       <c r="K219" t="n">
         <v>5.575732829683919</v>
       </c>
       <c r="L219" t="n">
-        <v>0.08539375830954231</v>
+        <v>0.08826799293594362</v>
       </c>
       <c r="M219" t="n">
         <v>5.575732829683919</v>
       </c>
       <c r="N219" t="n">
-        <v>0.09135927108960439</v>
+        <v>0.085841305768664</v>
       </c>
       <c r="O219" t="n">
         <v>5.575732829683919</v>
@@ -6895,25 +6895,25 @@
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.04872041699264902</v>
+        <v>0.05819030952052813</v>
       </c>
       <c r="G220" t="n">
         <v>5.611938887019529</v>
       </c>
       <c r="J220" t="n">
-        <v>0.04872041699264902</v>
+        <v>0.05819030952052813</v>
       </c>
       <c r="K220" t="n">
         <v>5.611938887019529</v>
       </c>
       <c r="L220" t="n">
-        <v>0.08511673903346215</v>
+        <v>0.08372765530545895</v>
       </c>
       <c r="M220" t="n">
         <v>5.611938887019529</v>
       </c>
       <c r="N220" t="n">
-        <v>0.09406889221988496</v>
+        <v>0.08919621460924004</v>
       </c>
       <c r="O220" t="n">
         <v>5.611938887019529</v>
@@ -6921,25 +6921,25 @@
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.04919376410931364</v>
+        <v>0.05625137252503723</v>
       </c>
       <c r="G221" t="n">
         <v>5.648144944355139</v>
       </c>
       <c r="J221" t="n">
-        <v>0.04919376410931364</v>
+        <v>0.05625137252503723</v>
       </c>
       <c r="K221" t="n">
         <v>5.648144944355139</v>
       </c>
       <c r="L221" t="n">
-        <v>0.08169864077525638</v>
+        <v>0.08148004796765093</v>
       </c>
       <c r="M221" t="n">
         <v>5.648144944355139</v>
       </c>
       <c r="N221" t="n">
-        <v>0.09102411931933489</v>
+        <v>0.08961012532519523</v>
       </c>
       <c r="O221" t="n">
         <v>5.648144944355139</v>
@@ -6947,25 +6947,25 @@
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.04988945810413683</v>
+        <v>0.05421032434921579</v>
       </c>
       <c r="G222" t="n">
         <v>5.684351001690749</v>
       </c>
       <c r="J222" t="n">
-        <v>0.04988945810413683</v>
+        <v>0.05421032434921579</v>
       </c>
       <c r="K222" t="n">
         <v>5.684351001690749</v>
       </c>
       <c r="L222" t="n">
-        <v>0.0834714528806625</v>
+        <v>0.08161130594032616</v>
       </c>
       <c r="M222" t="n">
         <v>5.684351001690749</v>
       </c>
       <c r="N222" t="n">
-        <v>0.09235162537811682</v>
+        <v>0.08822688273236813</v>
       </c>
       <c r="O222" t="n">
         <v>5.684351001690749</v>
@@ -6973,25 +6973,25 @@
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.04951140553821334</v>
+        <v>0.05793121031274014</v>
       </c>
       <c r="G223" t="n">
         <v>5.720557059026359</v>
       </c>
       <c r="J223" t="n">
-        <v>0.04951140553821334</v>
+        <v>0.05793121031274014</v>
       </c>
       <c r="K223" t="n">
         <v>5.720557059026359</v>
       </c>
       <c r="L223" t="n">
-        <v>0.08048511981800248</v>
+        <v>0.07998023033264931</v>
       </c>
       <c r="M223" t="n">
         <v>5.720557059026359</v>
       </c>
       <c r="N223" t="n">
-        <v>0.09535244653960599</v>
+        <v>0.08682564085437831</v>
       </c>
       <c r="O223" t="n">
         <v>5.720557059026359</v>
@@ -6999,25 +6999,25 @@
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.04999233076544419</v>
+        <v>0.0582651077743603</v>
       </c>
       <c r="G224" t="n">
         <v>5.756763116361968</v>
       </c>
       <c r="J224" t="n">
-        <v>0.04999233076544419</v>
+        <v>0.0582651077743603</v>
       </c>
       <c r="K224" t="n">
         <v>5.756763116361968</v>
       </c>
       <c r="L224" t="n">
-        <v>0.08012142895797129</v>
+        <v>0.0778433167634934</v>
       </c>
       <c r="M224" t="n">
         <v>5.756763116361968</v>
       </c>
       <c r="N224" t="n">
-        <v>0.09751834076368857</v>
+        <v>0.08240719416366867</v>
       </c>
       <c r="O224" t="n">
         <v>5.756763116361968</v>
@@ -7025,25 +7025,25 @@
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.04984400502057695</v>
+        <v>0.05618609166331728</v>
       </c>
       <c r="G225" t="n">
         <v>5.792969173697578</v>
       </c>
       <c r="J225" t="n">
-        <v>0.04984400502057695</v>
+        <v>0.05618609166331728</v>
       </c>
       <c r="K225" t="n">
         <v>5.792969173697578</v>
       </c>
       <c r="L225" t="n">
-        <v>0.08014674898214706</v>
+        <v>0.08291041735086258</v>
       </c>
       <c r="M225" t="n">
         <v>5.792969173697578</v>
       </c>
       <c r="N225" t="n">
-        <v>0.09405454487678475</v>
+        <v>0.08844847740049809</v>
       </c>
       <c r="O225" t="n">
         <v>5.792969173697578</v>
@@ -7051,25 +7051,25 @@
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.04880342153324985</v>
+        <v>0.05792187349399227</v>
       </c>
       <c r="G226" t="n">
         <v>5.829175231033188</v>
       </c>
       <c r="J226" t="n">
-        <v>0.04880342153324985</v>
+        <v>0.05792187349399227</v>
       </c>
       <c r="K226" t="n">
         <v>5.829175231033188</v>
       </c>
       <c r="L226" t="n">
-        <v>0.08047144194787946</v>
+        <v>0.08085128254774941</v>
       </c>
       <c r="M226" t="n">
         <v>5.829175231033188</v>
       </c>
       <c r="N226" t="n">
-        <v>0.09372511099401859</v>
+        <v>0.08589153824568509</v>
       </c>
       <c r="O226" t="n">
         <v>5.829175231033188</v>
@@ -7077,25 +7077,25 @@
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.04835615970566711</v>
+        <v>0.05529505453190865</v>
       </c>
       <c r="G227" t="n">
         <v>5.865381288368798</v>
       </c>
       <c r="J227" t="n">
-        <v>0.04835615970566711</v>
+        <v>0.05529505453190865</v>
       </c>
       <c r="K227" t="n">
         <v>5.865381288368798</v>
       </c>
       <c r="L227" t="n">
-        <v>0.08341100006373839</v>
+        <v>0.08057374430217186</v>
       </c>
       <c r="M227" t="n">
         <v>5.865381288368798</v>
       </c>
       <c r="N227" t="n">
-        <v>0.09577690754719474</v>
+        <v>0.08116823343712525</v>
       </c>
       <c r="O227" t="n">
         <v>5.865381288368798</v>
@@ -7103,25 +7103,25 @@
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.0509708896796542</v>
+        <v>0.05711409216112998</v>
       </c>
       <c r="G228" t="n">
         <v>5.901587345704408</v>
       </c>
       <c r="J228" t="n">
-        <v>0.0509708896796542</v>
+        <v>0.05711409216112998</v>
       </c>
       <c r="K228" t="n">
         <v>5.901587345704408</v>
       </c>
       <c r="L228" t="n">
-        <v>0.07890655257846731</v>
+        <v>0.07871111038147686</v>
       </c>
       <c r="M228" t="n">
         <v>5.901587345704408</v>
       </c>
       <c r="N228" t="n">
-        <v>0.09515140989935722</v>
+        <v>0.08557170963027097</v>
       </c>
       <c r="O228" t="n">
         <v>5.901587345704408</v>
@@ -7129,25 +7129,25 @@
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.05076621043860827</v>
+        <v>0.05370908010627055</v>
       </c>
       <c r="G229" t="n">
         <v>5.937793403040018</v>
       </c>
       <c r="J229" t="n">
-        <v>0.05076621043860827</v>
+        <v>0.05370908010627055</v>
       </c>
       <c r="K229" t="n">
         <v>5.937793403040018</v>
       </c>
       <c r="L229" t="n">
-        <v>0.08415088000170688</v>
+        <v>0.07783548188395303</v>
       </c>
       <c r="M229" t="n">
         <v>5.937793403040018</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1020468894703782</v>
+        <v>0.08238803037478817</v>
       </c>
       <c r="O229" t="n">
         <v>5.937793403040018</v>
@@ -7155,25 +7155,25 @@
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.05053258267889366</v>
+        <v>0.0550485974350918</v>
       </c>
       <c r="G230" t="n">
         <v>5.973999460375628</v>
       </c>
       <c r="J230" t="n">
-        <v>0.05053258267889366</v>
+        <v>0.0550485974350918</v>
       </c>
       <c r="K230" t="n">
         <v>5.973999460375628</v>
       </c>
       <c r="L230" t="n">
-        <v>0.07803012553404029</v>
+        <v>0.07698439268020008</v>
       </c>
       <c r="M230" t="n">
         <v>5.973999460375628</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1020429822417759</v>
+        <v>0.08505916326052637</v>
       </c>
       <c r="O230" t="n">
         <v>5.973999460375628</v>
@@ -7181,25 +7181,25 @@
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.0472189659204931</v>
+        <v>0.05460003606022332</v>
       </c>
       <c r="G231" t="n">
         <v>6.010205517711237</v>
       </c>
       <c r="J231" t="n">
-        <v>0.0472189659204931</v>
+        <v>0.05460003606022332</v>
       </c>
       <c r="K231" t="n">
         <v>6.010205517711237</v>
       </c>
       <c r="L231" t="n">
-        <v>0.08118664419302679</v>
+        <v>0.07319717147101326</v>
       </c>
       <c r="M231" t="n">
         <v>6.010205517711237</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1001499380960513</v>
+        <v>0.08288837264922473</v>
       </c>
       <c r="O231" t="n">
         <v>6.010205517711237</v>
@@ -7207,25 +7207,25 @@
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.05037051209219521</v>
+        <v>0.0568697667542498</v>
       </c>
       <c r="G232" t="n">
         <v>6.046411575046847</v>
       </c>
       <c r="J232" t="n">
-        <v>0.05037051209219521</v>
+        <v>0.0568697667542498</v>
       </c>
       <c r="K232" t="n">
         <v>6.046411575046847</v>
       </c>
       <c r="L232" t="n">
-        <v>0.07594320666843135</v>
+        <v>0.07270919807695637</v>
       </c>
       <c r="M232" t="n">
         <v>6.046411575046847</v>
       </c>
       <c r="N232" t="n">
-        <v>0.09968641633598536</v>
+        <v>0.08224121838676593</v>
       </c>
       <c r="O232" t="n">
         <v>6.046411575046847</v>
@@ -7233,25 +7233,25 @@
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.05114453635840321</v>
+        <v>0.05338126804414434</v>
       </c>
       <c r="G233" t="n">
         <v>6.082617632382457</v>
       </c>
       <c r="J233" t="n">
-        <v>0.05114453635840321</v>
+        <v>0.05338126804414434</v>
       </c>
       <c r="K233" t="n">
         <v>6.082617632382457</v>
       </c>
       <c r="L233" t="n">
-        <v>0.08051965467246859</v>
+        <v>0.07003667020465887</v>
       </c>
       <c r="M233" t="n">
         <v>6.082617632382457</v>
       </c>
       <c r="N233" t="n">
-        <v>0.09931627842179166</v>
+        <v>0.0806449132347366</v>
       </c>
       <c r="O233" t="n">
         <v>6.082617632382457</v>
@@ -7259,25 +7259,25 @@
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.04760254819635121</v>
+        <v>0.05527639368997911</v>
       </c>
       <c r="G234" t="n">
         <v>6.118823689718067</v>
       </c>
       <c r="J234" t="n">
-        <v>0.04760254819635121</v>
+        <v>0.05527639368997911</v>
       </c>
       <c r="K234" t="n">
         <v>6.118823689718067</v>
       </c>
       <c r="L234" t="n">
-        <v>0.07728011223489285</v>
+        <v>0.06831136130987923</v>
       </c>
       <c r="M234" t="n">
         <v>6.118823689718067</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1005362207801607</v>
+        <v>0.08447523846725796</v>
       </c>
       <c r="O234" t="n">
         <v>6.118823689718067</v>
@@ -7285,25 +7285,25 @@
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.04848463773002978</v>
+        <v>0.05567539674521242</v>
       </c>
       <c r="G235" t="n">
         <v>6.155029747053677</v>
       </c>
       <c r="J235" t="n">
-        <v>0.04848463773002978</v>
+        <v>0.05567539674521242</v>
       </c>
       <c r="K235" t="n">
         <v>6.155029747053677</v>
       </c>
       <c r="L235" t="n">
-        <v>0.07674957524256083</v>
+        <v>0.07256832622856021</v>
       </c>
       <c r="M235" t="n">
         <v>6.155029747053677</v>
       </c>
       <c r="N235" t="n">
-        <v>0.09939063132682925</v>
+        <v>0.08285428744522201</v>
       </c>
       <c r="O235" t="n">
         <v>6.155029747053677</v>
@@ -7311,25 +7311,25 @@
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.05032402009638496</v>
+        <v>0.05529363974694679</v>
       </c>
       <c r="G236" t="n">
         <v>6.191235804389287</v>
       </c>
       <c r="J236" t="n">
-        <v>0.05032402009638496</v>
+        <v>0.05529363974694679</v>
       </c>
       <c r="K236" t="n">
         <v>6.191235804389287</v>
       </c>
       <c r="L236" t="n">
-        <v>0.07666564986637715</v>
+        <v>0.06775098329331117</v>
       </c>
       <c r="M236" t="n">
         <v>6.191235804389287</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1023881339617346</v>
+        <v>0.07764306960403471</v>
       </c>
       <c r="O236" t="n">
         <v>6.191235804389287</v>
@@ -7337,25 +7337,25 @@
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.0488704989839779</v>
+        <v>0.05366970769755808</v>
       </c>
       <c r="G237" t="n">
         <v>6.227441861724897</v>
       </c>
       <c r="J237" t="n">
-        <v>0.0488704989839779</v>
+        <v>0.05366970769755808</v>
       </c>
       <c r="K237" t="n">
         <v>6.227441861724897</v>
       </c>
       <c r="L237" t="n">
-        <v>0.07522847541415353</v>
+        <v>0.06813715502954534</v>
       </c>
       <c r="M237" t="n">
         <v>6.227441861724897</v>
       </c>
       <c r="N237" t="n">
-        <v>0.09954747142186937</v>
+        <v>0.08086671363213377</v>
       </c>
       <c r="O237" t="n">
         <v>6.227441861724897</v>
@@ -7363,25 +7363,25 @@
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.04912338426532452</v>
+        <v>0.05066304263451954</v>
       </c>
       <c r="G238" t="n">
         <v>6.263647919060507</v>
       </c>
       <c r="J238" t="n">
-        <v>0.04912338426532452</v>
+        <v>0.05066304263451954</v>
       </c>
       <c r="K238" t="n">
         <v>6.263647919060507</v>
       </c>
       <c r="L238" t="n">
-        <v>0.07534036374176105</v>
+        <v>0.06649951812777852</v>
       </c>
       <c r="M238" t="n">
         <v>6.263647919060507</v>
       </c>
       <c r="N238" t="n">
-        <v>0.09559223108214937</v>
+        <v>0.0799133340810477</v>
       </c>
       <c r="O238" t="n">
         <v>6.263647919060507</v>
@@ -7389,25 +7389,25 @@
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.05073600363534359</v>
+        <v>0.05429247304707938</v>
       </c>
       <c r="G239" t="n">
         <v>6.299853976396117</v>
       </c>
       <c r="J239" t="n">
-        <v>0.05073600363534359</v>
+        <v>0.05429247304707938</v>
       </c>
       <c r="K239" t="n">
         <v>6.299853976396117</v>
       </c>
       <c r="L239" t="n">
-        <v>0.07679073278383637</v>
+        <v>0.06561774261915622</v>
       </c>
       <c r="M239" t="n">
         <v>6.299853976396117</v>
       </c>
       <c r="N239" t="n">
-        <v>0.09441831089279831</v>
+        <v>0.07871523229826458</v>
       </c>
       <c r="O239" t="n">
         <v>6.299853976396117</v>
@@ -7415,25 +7415,25 @@
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.04958950225273748</v>
+        <v>0.05094742023818215</v>
       </c>
       <c r="G240" t="n">
         <v>6.336060033731727</v>
       </c>
       <c r="J240" t="n">
-        <v>0.04958950225273748</v>
+        <v>0.05094742023818215</v>
       </c>
       <c r="K240" t="n">
         <v>6.336060033731727</v>
       </c>
       <c r="L240" t="n">
-        <v>0.07728569455311256</v>
+        <v>0.06637274852228865</v>
       </c>
       <c r="M240" t="n">
         <v>6.336060033731727</v>
       </c>
       <c r="N240" t="n">
-        <v>0.09835947896682054</v>
+        <v>0.07810217577844879</v>
       </c>
       <c r="O240" t="n">
         <v>6.336060033731727</v>
@@ -7441,25 +7441,25 @@
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.04851000133275733</v>
+        <v>0.05079292848824288</v>
       </c>
       <c r="G241" t="n">
         <v>6.372266091067337</v>
       </c>
       <c r="J241" t="n">
-        <v>0.04851000133275733</v>
+        <v>0.05079292848824288</v>
       </c>
       <c r="K241" t="n">
         <v>6.372266091067337</v>
       </c>
       <c r="L241" t="n">
-        <v>0.07442821604260304</v>
+        <v>0.06590826323865058</v>
       </c>
       <c r="M241" t="n">
         <v>6.372266091067337</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1016811490508327</v>
+        <v>0.07439020478339188</v>
       </c>
       <c r="O241" t="n">
         <v>6.372266091067337</v>
@@ -7467,25 +7467,25 @@
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.04890902987207907</v>
+        <v>0.05020499191220133</v>
       </c>
       <c r="G242" t="n">
         <v>6.408472148402947</v>
       </c>
       <c r="J242" t="n">
-        <v>0.04890902987207907</v>
+        <v>0.05020499191220133</v>
       </c>
       <c r="K242" t="n">
         <v>6.408472148402947</v>
       </c>
       <c r="L242" t="n">
-        <v>0.07241639794934464</v>
+        <v>0.06579588947401901</v>
       </c>
       <c r="M242" t="n">
         <v>6.408472148402947</v>
       </c>
       <c r="N242" t="n">
-        <v>0.09859260725836816</v>
+        <v>0.07292421510084633</v>
       </c>
       <c r="O242" t="n">
         <v>6.408472148402947</v>
@@ -7493,25 +7493,25 @@
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.04947151939917856</v>
+        <v>0.04805609171445889</v>
       </c>
       <c r="G243" t="n">
         <v>6.444678205738557</v>
       </c>
       <c r="J243" t="n">
-        <v>0.04947151939917856</v>
+        <v>0.04805609171445889</v>
       </c>
       <c r="K243" t="n">
         <v>6.444678205738557</v>
       </c>
       <c r="L243" t="n">
-        <v>0.07175334425878555</v>
+        <v>0.06362580641006788</v>
       </c>
       <c r="M243" t="n">
         <v>6.444678205738557</v>
       </c>
       <c r="N243" t="n">
-        <v>0.0937854193852016</v>
+        <v>0.07342509890164019</v>
       </c>
       <c r="O243" t="n">
         <v>6.444678205738557</v>
@@ -7519,25 +7519,25 @@
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.04820330177787507</v>
+        <v>0.04924858587487118</v>
       </c>
       <c r="G244" t="n">
         <v>6.480884263074166</v>
       </c>
       <c r="J244" t="n">
-        <v>0.04820330177787507</v>
+        <v>0.04924858587487118</v>
       </c>
       <c r="K244" t="n">
         <v>6.480884263074166</v>
       </c>
       <c r="L244" t="n">
-        <v>0.07375380478760564</v>
+        <v>0.05982538058948521</v>
       </c>
       <c r="M244" t="n">
         <v>6.480884263074166</v>
       </c>
       <c r="N244" t="n">
-        <v>0.09476366870282139</v>
+        <v>0.07724797093455886</v>
       </c>
       <c r="O244" t="n">
         <v>6.480884263074166</v>
@@ -7545,25 +7545,25 @@
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.05003910292097574</v>
+        <v>0.04614750824997024</v>
       </c>
       <c r="G245" t="n">
         <v>6.517090320409776</v>
       </c>
       <c r="J245" t="n">
-        <v>0.05003910292097574</v>
+        <v>0.04614750824997024</v>
       </c>
       <c r="K245" t="n">
         <v>6.517090320409776</v>
       </c>
       <c r="L245" t="n">
-        <v>0.07375208625983018</v>
+        <v>0.06065195793311195</v>
       </c>
       <c r="M245" t="n">
         <v>6.517090320409776</v>
       </c>
       <c r="N245" t="n">
-        <v>0.09252426971800104</v>
+        <v>0.07268766019497935</v>
       </c>
       <c r="O245" t="n">
         <v>6.517090320409776</v>
@@ -7571,25 +7571,25 @@
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.04950488238846898</v>
+        <v>0.04766609251544847</v>
       </c>
       <c r="G246" t="n">
         <v>6.553296377745386</v>
       </c>
       <c r="J246" t="n">
-        <v>0.04950488238846898</v>
+        <v>0.04766609251544847</v>
       </c>
       <c r="K246" t="n">
         <v>6.553296377745386</v>
       </c>
       <c r="L246" t="n">
-        <v>0.07061493635119113</v>
+        <v>0.06056579684485387</v>
       </c>
       <c r="M246" t="n">
         <v>6.553296377745386</v>
       </c>
       <c r="N246" t="n">
-        <v>0.09522299673069716</v>
+        <v>0.07089618957177685</v>
       </c>
       <c r="O246" t="n">
         <v>6.553296377745386</v>
@@ -7597,25 +7597,25 @@
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.04617528163155299</v>
+        <v>0.0476138832447505</v>
       </c>
       <c r="G247" t="n">
         <v>6.589502435080996</v>
       </c>
       <c r="J247" t="n">
-        <v>0.04617528163155299</v>
+        <v>0.0476138832447505</v>
       </c>
       <c r="K247" t="n">
         <v>6.589502435080996</v>
       </c>
       <c r="L247" t="n">
-        <v>0.07217278091141055</v>
+        <v>0.06071161303459898</v>
       </c>
       <c r="M247" t="n">
         <v>6.589502435080996</v>
       </c>
       <c r="N247" t="n">
-        <v>0.09197175739780014</v>
+        <v>0.06957221367521035</v>
       </c>
       <c r="O247" t="n">
         <v>6.589502435080996</v>
@@ -7623,25 +7623,25 @@
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.04962167469348564</v>
+        <v>0.04526195074267402</v>
       </c>
       <c r="G248" t="n">
         <v>6.625708492416606</v>
       </c>
       <c r="J248" t="n">
-        <v>0.04962167469348564</v>
+        <v>0.04526195074267402</v>
       </c>
       <c r="K248" t="n">
         <v>6.625708492416606</v>
       </c>
       <c r="L248" t="n">
-        <v>0.06641762239379495</v>
+        <v>0.05966568101666716</v>
       </c>
       <c r="M248" t="n">
         <v>6.625708492416606</v>
       </c>
       <c r="N248" t="n">
-        <v>0.09135093078366684</v>
+        <v>0.07178350008063285</v>
       </c>
       <c r="O248" t="n">
         <v>6.625708492416606</v>
@@ -7649,25 +7649,25 @@
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.04971640704917329</v>
+        <v>0.04446495807342445</v>
       </c>
       <c r="G249" t="n">
         <v>6.661914549752216</v>
       </c>
       <c r="J249" t="n">
-        <v>0.04971640704917329</v>
+        <v>0.04446495807342445</v>
       </c>
       <c r="K249" t="n">
         <v>6.661914549752216</v>
       </c>
       <c r="L249" t="n">
-        <v>0.06753466073179903</v>
+        <v>0.05909270906460875</v>
       </c>
       <c r="M249" t="n">
         <v>6.661914549752216</v>
       </c>
       <c r="N249" t="n">
-        <v>0.09701717049810644</v>
+        <v>0.06684717152251812</v>
       </c>
       <c r="O249" t="n">
         <v>6.661914549752216</v>
@@ -7675,25 +7675,25 @@
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.04638657484017115</v>
+        <v>0.04315355966858685</v>
       </c>
       <c r="G250" t="n">
         <v>6.698120607087826</v>
       </c>
       <c r="J250" t="n">
-        <v>0.04638657484017115</v>
+        <v>0.04315355966858685</v>
       </c>
       <c r="K250" t="n">
         <v>6.698120607087826</v>
       </c>
       <c r="L250" t="n">
-        <v>0.06527480333281692</v>
+        <v>0.05634717800966388</v>
       </c>
       <c r="M250" t="n">
         <v>6.698120607087826</v>
       </c>
       <c r="N250" t="n">
-        <v>0.08975887405386489</v>
+        <v>0.06957445515622768</v>
       </c>
       <c r="O250" t="n">
         <v>6.698120607087826</v>
@@ -7701,25 +7701,25 @@
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.04595656940836113</v>
+        <v>0.04221025774459079</v>
       </c>
       <c r="G251" t="n">
         <v>6.734326664423435</v>
       </c>
       <c r="J251" t="n">
-        <v>0.04595656940836113</v>
+        <v>0.04221025774459079</v>
       </c>
       <c r="K251" t="n">
         <v>6.734326664423435</v>
       </c>
       <c r="L251" t="n">
-        <v>0.06414363074453312</v>
+        <v>0.05288287866976491</v>
       </c>
       <c r="M251" t="n">
         <v>6.734326664423435</v>
       </c>
       <c r="N251" t="n">
-        <v>0.08878481649326195</v>
+        <v>0.06641287479350137</v>
       </c>
       <c r="O251" t="n">
         <v>6.734326664423435</v>
@@ -7727,25 +7727,25 @@
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.04986670773876614</v>
+        <v>0.04058027169809021</v>
       </c>
       <c r="G252" t="n">
         <v>6.770532721759045</v>
       </c>
       <c r="J252" t="n">
-        <v>0.04986670773876614</v>
+        <v>0.04058027169809021</v>
       </c>
       <c r="K252" t="n">
         <v>6.770532721759045</v>
       </c>
       <c r="L252" t="n">
-        <v>0.06639575287086218</v>
+        <v>0.05303309041036026</v>
       </c>
       <c r="M252" t="n">
         <v>6.770532721759045</v>
       </c>
       <c r="N252" t="n">
-        <v>0.09123177568619556</v>
+        <v>0.06420241012814909</v>
       </c>
       <c r="O252" t="n">
         <v>6.770532721759045</v>
@@ -7753,25 +7753,25 @@
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.04678867379867553</v>
+        <v>0.04068406358472587</v>
       </c>
       <c r="G253" t="n">
         <v>6.806738779094655</v>
       </c>
       <c r="J253" t="n">
-        <v>0.04678867379867553</v>
+        <v>0.04068406358472587</v>
       </c>
       <c r="K253" t="n">
         <v>6.806738779094655</v>
       </c>
       <c r="L253" t="n">
-        <v>0.06628494797729073</v>
+        <v>0.05446391657549174</v>
       </c>
       <c r="M253" t="n">
         <v>6.806738779094655</v>
       </c>
       <c r="N253" t="n">
-        <v>0.0917901173282293</v>
+        <v>0.06550583063231426</v>
       </c>
       <c r="O253" t="n">
         <v>6.806738779094655</v>
@@ -7779,25 +7779,25 @@
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.04689924951374359</v>
+        <v>0.03724192626776207</v>
       </c>
       <c r="G254" t="n">
         <v>6.842944836430265</v>
       </c>
       <c r="J254" t="n">
-        <v>0.04689924951374359</v>
+        <v>0.03724192626776207</v>
       </c>
       <c r="K254" t="n">
         <v>6.842944836430265</v>
       </c>
       <c r="L254" t="n">
-        <v>0.06199372929985859</v>
+        <v>0.05002884179246643</v>
       </c>
       <c r="M254" t="n">
         <v>6.842944836430265</v>
       </c>
       <c r="N254" t="n">
-        <v>0.08487017066847967</v>
+        <v>0.05919466909203715</v>
       </c>
       <c r="O254" t="n">
         <v>6.842944836430265</v>
@@ -7805,25 +7805,25 @@
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.04761957036560451</v>
+        <v>0.03604831050048857</v>
       </c>
       <c r="G255" t="n">
         <v>6.879150893765875</v>
       </c>
       <c r="J255" t="n">
-        <v>0.04761957036560451</v>
+        <v>0.03604831050048857</v>
       </c>
       <c r="K255" t="n">
         <v>6.879150893765875</v>
       </c>
       <c r="L255" t="n">
-        <v>0.06241182726211932</v>
+        <v>0.04889605482796535</v>
       </c>
       <c r="M255" t="n">
         <v>6.879150893765875</v>
       </c>
       <c r="N255" t="n">
-        <v>0.0838466377194947</v>
+        <v>0.06104476688224354</v>
       </c>
       <c r="O255" t="n">
         <v>6.879150893765875</v>
@@ -7831,25 +7831,25 @@
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.04740399891711779</v>
+        <v>0.03687795983055814</v>
       </c>
       <c r="G256" t="n">
         <v>6.915356951101485</v>
       </c>
       <c r="J256" t="n">
-        <v>0.04740399891711779</v>
+        <v>0.03687795983055814</v>
       </c>
       <c r="K256" t="n">
         <v>6.915356951101485</v>
       </c>
       <c r="L256" t="n">
-        <v>0.06317106549305174</v>
+        <v>0.04724321199570091</v>
       </c>
       <c r="M256" t="n">
         <v>6.915356951101485</v>
       </c>
       <c r="N256" t="n">
-        <v>0.08296947002216939</v>
+        <v>0.05832055596607335</v>
       </c>
       <c r="O256" t="n">
         <v>6.915356951101485</v>
@@ -7857,25 +7857,25 @@
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.04624083854640016</v>
+        <v>0.03489219536332187</v>
       </c>
       <c r="G257" t="n">
         <v>6.951563008437095</v>
       </c>
       <c r="J257" t="n">
-        <v>0.04624083854640016</v>
+        <v>0.03489219536332187</v>
       </c>
       <c r="K257" t="n">
         <v>6.951563008437095</v>
       </c>
       <c r="L257" t="n">
-        <v>0.06315540528649553</v>
+        <v>0.04811723269842841</v>
       </c>
       <c r="M257" t="n">
         <v>6.951563008437095</v>
       </c>
       <c r="N257" t="n">
-        <v>0.08742436222369548</v>
+        <v>0.05653101543410969</v>
       </c>
       <c r="O257" t="n">
         <v>6.951563008437095</v>
@@ -7883,25 +7883,25 @@
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.04855014216080601</v>
+        <v>0.0338949655430813</v>
       </c>
       <c r="G258" t="n">
         <v>6.987769065772704</v>
       </c>
       <c r="J258" t="n">
-        <v>0.04855014216080601</v>
+        <v>0.0338949655430813</v>
       </c>
       <c r="K258" t="n">
         <v>6.987769065772704</v>
       </c>
       <c r="L258" t="n">
-        <v>0.058998598644887</v>
+        <v>0.04539780420720263</v>
       </c>
       <c r="M258" t="n">
         <v>6.987769065772704</v>
       </c>
       <c r="N258" t="n">
-        <v>0.08456822405497474</v>
+        <v>0.05407884949731079</v>
       </c>
       <c r="O258" t="n">
         <v>6.987769065772704</v>
@@ -7909,25 +7909,25 @@
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.04609056835919282</v>
+        <v>0.03245261723836623</v>
       </c>
       <c r="G259" t="n">
         <v>7.023975123108314</v>
       </c>
       <c r="J259" t="n">
-        <v>0.04609056835919282</v>
+        <v>0.03245261723836623</v>
       </c>
       <c r="K259" t="n">
         <v>7.023975123108314</v>
       </c>
       <c r="L259" t="n">
-        <v>0.06012930247632619</v>
+        <v>0.04593571331405965</v>
       </c>
       <c r="M259" t="n">
         <v>7.023975123108314</v>
       </c>
       <c r="N259" t="n">
-        <v>0.08034699246762683</v>
+        <v>0.05641286391372582</v>
       </c>
       <c r="O259" t="n">
         <v>7.023975123108314</v>
@@ -7935,25 +7935,25 @@
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.04904752407555076</v>
+        <v>0.02907215643553068</v>
       </c>
       <c r="G260" t="n">
         <v>7.060181180443924</v>
       </c>
       <c r="J260" t="n">
-        <v>0.04904752407555076</v>
+        <v>0.02907215643553068</v>
       </c>
       <c r="K260" t="n">
         <v>7.060181180443924</v>
       </c>
       <c r="L260" t="n">
-        <v>0.0604554092895978</v>
+        <v>0.0448863029665641</v>
       </c>
       <c r="M260" t="n">
         <v>7.060181180443924</v>
       </c>
       <c r="N260" t="n">
-        <v>0.08418434645324974</v>
+        <v>0.05221651457861286</v>
       </c>
       <c r="O260" t="n">
         <v>7.060181180443924</v>
@@ -7961,25 +7961,25 @@
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.04720771772131648</v>
+        <v>0.02775653910829179</v>
       </c>
       <c r="G261" t="n">
         <v>7.096387237779534</v>
       </c>
       <c r="J261" t="n">
-        <v>0.04720771772131648</v>
+        <v>0.02775653910829179</v>
       </c>
       <c r="K261" t="n">
         <v>7.096387237779534</v>
       </c>
       <c r="L261" t="n">
-        <v>0.05650225938638604</v>
+        <v>0.04232715097161721</v>
       </c>
       <c r="M261" t="n">
         <v>7.096387237779534</v>
       </c>
       <c r="N261" t="n">
-        <v>0.07688459966105522</v>
+        <v>0.05148888327061001</v>
       </c>
       <c r="O261" t="n">
         <v>7.096387237779534</v>
@@ -7987,25 +7987,25 @@
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.04923548615796553</v>
+        <v>0.02692047314394063</v>
       </c>
       <c r="G262" t="n">
         <v>7.132593295115144</v>
       </c>
       <c r="J262" t="n">
-        <v>0.04923548615796553</v>
+        <v>0.02692047314394063</v>
       </c>
       <c r="K262" t="n">
         <v>7.132593295115144</v>
       </c>
       <c r="L262" t="n">
-        <v>0.05463426150363093</v>
+        <v>0.04245820398704806</v>
       </c>
       <c r="M262" t="n">
         <v>7.132593295115144</v>
       </c>
       <c r="N262" t="n">
-        <v>0.07591611607951593</v>
+        <v>0.05126434480788776</v>
       </c>
       <c r="O262" t="n">
         <v>7.132593295115144</v>
@@ -8013,25 +8013,25 @@
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.04791565761917008</v>
+        <v>0.0249766544397313</v>
       </c>
       <c r="G263" t="n">
         <v>7.168799352450754</v>
       </c>
       <c r="J263" t="n">
-        <v>0.04791565761917008</v>
+        <v>0.0249766544397313</v>
       </c>
       <c r="K263" t="n">
         <v>7.168799352450754</v>
       </c>
       <c r="L263" t="n">
-        <v>0.05582199267710865</v>
+        <v>0.0407131124666853</v>
       </c>
       <c r="M263" t="n">
         <v>7.168799352450754</v>
       </c>
       <c r="N263" t="n">
-        <v>0.07948072758095252</v>
+        <v>0.04766627064311398</v>
       </c>
       <c r="O263" t="n">
         <v>7.168799352450754</v>
@@ -8039,25 +8039,25 @@
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.04900784649473721</v>
+        <v>0.02521623594311625</v>
       </c>
       <c r="G264" t="n">
         <v>7.205005409786363</v>
       </c>
       <c r="J264" t="n">
-        <v>0.04900784649473721</v>
+        <v>0.02521623594311625</v>
       </c>
       <c r="K264" t="n">
         <v>7.205005409786363</v>
       </c>
       <c r="L264" t="n">
-        <v>0.05224854058739882</v>
+        <v>0.03974648461108649</v>
       </c>
       <c r="M264" t="n">
         <v>7.205005409786363</v>
       </c>
       <c r="N264" t="n">
-        <v>0.07294142358002367</v>
+        <v>0.04824709925192115</v>
       </c>
       <c r="O264" t="n">
         <v>7.205005409786363</v>
